--- a/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9522160625268866</v>
+        <v>0.9522160625268868</v>
       </c>
       <c r="D2">
         <v>1.021928439784185</v>
       </c>
       <c r="E2">
-        <v>0.9647014918713352</v>
+        <v>0.9647014918713357</v>
       </c>
       <c r="F2">
-        <v>0.974427438361773</v>
+        <v>0.9744274383617734</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042765512655523</v>
       </c>
       <c r="J2">
-        <v>0.975926367998211</v>
+        <v>0.9759263679982112</v>
       </c>
       <c r="K2">
-        <v>1.033090501250861</v>
+        <v>1.033090501250862</v>
       </c>
       <c r="L2">
-        <v>0.9766755249187257</v>
+        <v>0.976675524918726</v>
       </c>
       <c r="M2">
-        <v>0.9862549228176738</v>
+        <v>0.9862549228176742</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9622381811365893</v>
+        <v>0.9622381811365897</v>
       </c>
       <c r="D3">
-        <v>1.026971511235465</v>
+        <v>1.026971511235466</v>
       </c>
       <c r="E3">
-        <v>0.9730739897741413</v>
+        <v>0.9730739897741416</v>
       </c>
       <c r="F3">
-        <v>0.9839071502246963</v>
+        <v>0.9839071502246973</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.045334601654814</v>
       </c>
       <c r="J3">
-        <v>0.9838140228801052</v>
+        <v>0.9838140228801054</v>
       </c>
       <c r="K3">
-        <v>1.037270536487773</v>
+        <v>1.037270536487775</v>
       </c>
       <c r="L3">
-        <v>0.9840633948951516</v>
+        <v>0.9840633948951518</v>
       </c>
       <c r="M3">
-        <v>0.9947501691547435</v>
+        <v>0.9947501691547442</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9684598000804103</v>
+        <v>0.9684598000804115</v>
       </c>
       <c r="D4">
-        <v>1.030108374301802</v>
+        <v>1.030108374301803</v>
       </c>
       <c r="E4">
-        <v>0.9782804146386873</v>
+        <v>0.9782804146386884</v>
       </c>
       <c r="F4">
-        <v>0.9898004339033457</v>
+        <v>0.9898004339033469</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046912012068717</v>
       </c>
       <c r="J4">
-        <v>0.9887062277203613</v>
+        <v>0.9887062277203623</v>
       </c>
       <c r="K4">
         <v>1.039856506345472</v>
       </c>
       <c r="L4">
-        <v>0.9886482423650454</v>
+        <v>0.9886482423650464</v>
       </c>
       <c r="M4">
-        <v>1.000023537688387</v>
+        <v>1.000023537688389</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9710171392501697</v>
+        <v>0.9710171392501705</v>
       </c>
       <c r="D5">
-        <v>1.03139870739394</v>
+        <v>1.031398707393941</v>
       </c>
       <c r="E5">
-        <v>0.9804224082343774</v>
+        <v>0.9804224082343784</v>
       </c>
       <c r="F5">
-        <v>0.9922245145140018</v>
+        <v>0.9922245145140032</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.047555959405237</v>
       </c>
       <c r="J5">
-        <v>0.9907159462862156</v>
+        <v>0.9907159462862165</v>
       </c>
       <c r="K5">
-        <v>1.040916908124818</v>
+        <v>1.040916908124819</v>
       </c>
       <c r="L5">
-        <v>0.9905323084650544</v>
+        <v>0.9905323084650551</v>
       </c>
       <c r="M5">
-        <v>1.002190715939859</v>
+        <v>1.00219071593986</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9714432424589124</v>
+        <v>0.9714432424589121</v>
       </c>
       <c r="D6">
         <v>1.031613744045766</v>
       </c>
       <c r="E6">
-        <v>0.9807794157762324</v>
+        <v>0.9807794157762318</v>
       </c>
       <c r="F6">
-        <v>0.9926285058529857</v>
+        <v>0.9926285058529855</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.047662986129352</v>
       </c>
       <c r="J6">
-        <v>0.9910507322710652</v>
+        <v>0.9910507322710648</v>
       </c>
       <c r="K6">
         <v>1.04109343197493</v>
       </c>
       <c r="L6">
-        <v>0.9908461981795541</v>
+        <v>0.9908461981795536</v>
       </c>
       <c r="M6">
         <v>1.002551779477113</v>
@@ -620,7 +620,7 @@
         <v>0.9783092152678439</v>
       </c>
       <c r="F7">
-        <v>0.9898330294820827</v>
+        <v>0.9898330294820825</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9556607127968439</v>
+        <v>0.9556607127968436</v>
       </c>
       <c r="D8">
         <v>1.023660108239123</v>
       </c>
       <c r="E8">
-        <v>0.9675771485783187</v>
+        <v>0.9675771485783183</v>
       </c>
       <c r="F8">
-        <v>0.9776836726695369</v>
+        <v>0.9776836726695364</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043652073472998</v>
       </c>
       <c r="J8">
-        <v>0.9786382352779541</v>
+        <v>0.9786382352779539</v>
       </c>
       <c r="K8">
-        <v>1.034528848969266</v>
+        <v>1.034528848969265</v>
       </c>
       <c r="L8">
-        <v>0.9792149876442707</v>
+        <v>0.9792149876442705</v>
       </c>
       <c r="M8">
-        <v>0.9891746655413094</v>
+        <v>0.9891746655413091</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9307751671070887</v>
+        <v>0.9307751671070883</v>
       </c>
       <c r="D9">
         <v>1.011203136786362</v>
       </c>
       <c r="E9">
-        <v>0.9468510336428547</v>
+        <v>0.9468510336428538</v>
       </c>
       <c r="F9">
-        <v>0.954212109409351</v>
+        <v>0.9542121094093503</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.037181750924688</v>
       </c>
       <c r="J9">
-        <v>0.9590337885141804</v>
+        <v>0.9590337885141799</v>
       </c>
       <c r="K9">
         <v>1.024117028763532</v>
       </c>
       <c r="L9">
-        <v>0.960869591696335</v>
+        <v>0.9608695916963345</v>
       </c>
       <c r="M9">
-        <v>0.9680944799717827</v>
+        <v>0.9680944799717821</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -731,10 +731,10 @@
         <v>1.002022163549383</v>
       </c>
       <c r="E10">
-        <v>0.9314783669796357</v>
+        <v>0.9314783669796356</v>
       </c>
       <c r="F10">
-        <v>0.9368068528108658</v>
+        <v>0.9368068528108654</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032289612582002</v>
       </c>
       <c r="J10">
-        <v>0.9444128985778357</v>
+        <v>0.9444128985778354</v>
       </c>
       <c r="K10">
         <v>1.016355002942898</v>
       </c>
       <c r="L10">
-        <v>0.9472057654844815</v>
+        <v>0.9472057654844812</v>
       </c>
       <c r="M10">
-        <v>0.9524191886602387</v>
+        <v>0.9524191886602384</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.903601117729958</v>
+        <v>0.9036011177299581</v>
       </c>
       <c r="D11">
-        <v>0.9977924561967503</v>
+        <v>0.9977924561967501</v>
       </c>
       <c r="E11">
-        <v>0.9243550859491415</v>
+        <v>0.9243550859491416</v>
       </c>
       <c r="F11">
-        <v>0.9287454011527626</v>
+        <v>0.9287454011527627</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030004859873919</v>
       </c>
       <c r="J11">
-        <v>0.9376173119005915</v>
+        <v>0.9376173119005914</v>
       </c>
       <c r="K11">
         <v>1.012756123983857</v>
       </c>
       <c r="L11">
-        <v>0.9408599450830758</v>
+        <v>0.9408599450830757</v>
       </c>
       <c r="M11">
-        <v>0.9451489667702386</v>
+        <v>0.9451489667702389</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9002949065954071</v>
+        <v>0.9002949065954068</v>
       </c>
       <c r="D12">
-        <v>0.9961781481692178</v>
+        <v>0.9961781481692177</v>
       </c>
       <c r="E12">
-        <v>0.9216283657990254</v>
+        <v>0.9216283657990249</v>
       </c>
       <c r="F12">
-        <v>0.925660416688922</v>
+        <v>0.9256604166889217</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.0291280399987</v>
       </c>
       <c r="J12">
-        <v>0.9350127604921312</v>
+        <v>0.9350127604921307</v>
       </c>
       <c r="K12">
         <v>1.011378936954149</v>
       </c>
       <c r="L12">
-        <v>0.9384285855863581</v>
+        <v>0.9384285855863574</v>
       </c>
       <c r="M12">
-        <v>0.9423652960085837</v>
+        <v>0.9423652960085833</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9010090131059414</v>
+        <v>0.9010090131059413</v>
       </c>
       <c r="D13">
-        <v>0.9965264702548957</v>
+        <v>0.9965264702548954</v>
       </c>
       <c r="E13">
-        <v>0.9222171121792456</v>
+        <v>0.9222171121792455</v>
       </c>
       <c r="F13">
-        <v>0.9263264742645611</v>
+        <v>0.9263264742645608</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>1.01167626282533</v>
       </c>
       <c r="L13">
-        <v>0.9389536610443057</v>
+        <v>0.9389536610443058</v>
       </c>
       <c r="M13">
-        <v>0.9429663650627458</v>
+        <v>0.9429663650627454</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9033300153305354</v>
+        <v>0.903330015330535</v>
       </c>
       <c r="D14">
-        <v>0.9976599312357139</v>
+        <v>0.9976599312357137</v>
       </c>
       <c r="E14">
-        <v>0.924131413616322</v>
+        <v>0.9241314136163218</v>
       </c>
       <c r="F14">
-        <v>0.9284923211344041</v>
+        <v>0.9284923211344039</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.029932976913928</v>
       </c>
       <c r="J14">
-        <v>0.9374037281503712</v>
+        <v>0.937403728150371</v>
       </c>
       <c r="K14">
         <v>1.012643140159203</v>
       </c>
       <c r="L14">
-        <v>0.9406605469851863</v>
+        <v>0.9406605469851861</v>
       </c>
       <c r="M14">
-        <v>0.9449206350008318</v>
+        <v>0.9449206350008317</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.904745962761169</v>
+        <v>0.9047459627611674</v>
       </c>
       <c r="D15">
-        <v>0.9983524005236433</v>
+        <v>0.998352400523642</v>
       </c>
       <c r="E15">
-        <v>0.9252998078209845</v>
+        <v>0.9252998078209825</v>
       </c>
       <c r="F15">
-        <v>0.9298143685675998</v>
+        <v>0.9298143685675976</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030308383233105</v>
       </c>
       <c r="J15">
-        <v>0.9385192894602469</v>
+        <v>0.9385192894602451</v>
       </c>
       <c r="K15">
-        <v>1.013233354367993</v>
+        <v>1.013233354367992</v>
       </c>
       <c r="L15">
-        <v>0.941702048908961</v>
+        <v>0.9417020489089591</v>
       </c>
       <c r="M15">
-        <v>0.9461133421849276</v>
+        <v>0.9461133421849257</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9127839780856316</v>
+        <v>0.9127839780856303</v>
       </c>
       <c r="D16">
         <v>1.002297114584807</v>
       </c>
       <c r="E16">
-        <v>0.9319404220065284</v>
+        <v>0.9319404220065274</v>
       </c>
       <c r="F16">
-        <v>0.9373298619145441</v>
+        <v>0.9373298619145433</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032437483454304</v>
       </c>
       <c r="J16">
-        <v>0.9448532613679748</v>
+        <v>0.9448532613679737</v>
       </c>
       <c r="K16">
         <v>1.01658846121862</v>
       </c>
       <c r="L16">
-        <v>0.9476170891547191</v>
+        <v>0.9476170891547182</v>
       </c>
       <c r="M16">
-        <v>0.9528906615139551</v>
+        <v>0.9528906615139543</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9176586781264048</v>
+        <v>0.9176586781264047</v>
       </c>
       <c r="D17">
         <v>1.004700236847954</v>
       </c>
       <c r="E17">
-        <v>0.9359740965505663</v>
+        <v>0.9359740965505664</v>
       </c>
       <c r="F17">
-        <v>0.9418960950963875</v>
+        <v>0.9418960950963872</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>0.9512062776862575</v>
       </c>
       <c r="M17">
-        <v>0.9570058339517682</v>
+        <v>0.957005833951768</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9204459909077253</v>
+        <v>0.9204459909077264</v>
       </c>
       <c r="D18">
-        <v>1.006077790106817</v>
+        <v>1.006077790106818</v>
       </c>
       <c r="E18">
-        <v>0.9382826621483343</v>
+        <v>0.9382826621483352</v>
       </c>
       <c r="F18">
-        <v>0.9445097743779497</v>
+        <v>0.9445097743779504</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.034462438307946</v>
       </c>
       <c r="J18">
-        <v>0.9508922073407123</v>
+        <v>0.950892207340713</v>
       </c>
       <c r="K18">
         <v>1.01979243123102</v>
       </c>
       <c r="L18">
-        <v>0.9532591292961199</v>
+        <v>0.9532591292961209</v>
       </c>
       <c r="M18">
-        <v>0.9593603989355307</v>
+        <v>0.9593603989355314</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9213872642682003</v>
+        <v>0.9213872642682007</v>
       </c>
       <c r="D19">
         <v>1.006543539616374</v>
       </c>
       <c r="E19">
-        <v>0.9390626118657623</v>
+        <v>0.9390626118657627</v>
       </c>
       <c r="F19">
-        <v>0.9453928529735011</v>
+        <v>0.9453928529735013</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.034710801228833</v>
       </c>
       <c r="J19">
-        <v>0.9516341323457184</v>
+        <v>0.9516341323457186</v>
       </c>
       <c r="K19">
-        <v>1.020186328318269</v>
+        <v>1.02018632831827</v>
       </c>
       <c r="L19">
-        <v>0.9539524635052894</v>
+        <v>0.9539524635052897</v>
       </c>
       <c r="M19">
-        <v>0.9601557724819736</v>
+        <v>0.9601557724819737</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9171415537109804</v>
+        <v>0.9171415537109803</v>
       </c>
       <c r="D20">
         <v>1.004444935041898</v>
       </c>
       <c r="E20">
-        <v>0.9355459638209854</v>
+        <v>0.9355459638209852</v>
       </c>
       <c r="F20">
-        <v>0.9414114017374207</v>
+        <v>0.9414114017374204</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         <v>1.018410073336817</v>
       </c>
       <c r="L20">
-        <v>0.9508254610553499</v>
+        <v>0.9508254610553498</v>
       </c>
       <c r="M20">
-        <v>0.9565691162092333</v>
+        <v>0.9565691162092329</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9026495050288604</v>
+        <v>0.9026495050288599</v>
       </c>
       <c r="D21">
-        <v>0.9973273936069518</v>
+        <v>0.9973273936069504</v>
       </c>
       <c r="E21">
-        <v>0.923570028615208</v>
+        <v>0.9235700286152069</v>
       </c>
       <c r="F21">
-        <v>0.927857142040233</v>
+        <v>0.9278571420402315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02975252689427</v>
+        <v>1.029752526894269</v>
       </c>
       <c r="J21">
-        <v>0.9368676109903951</v>
+        <v>0.9368676109903941</v>
       </c>
       <c r="K21">
-        <v>1.012359576856575</v>
+        <v>1.012359576856574</v>
       </c>
       <c r="L21">
-        <v>0.940160050500001</v>
+        <v>0.9401600504999998</v>
       </c>
       <c r="M21">
-        <v>0.9443475453777903</v>
+        <v>0.9443475453777891</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,19 +1178,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.8929332804772648</v>
+        <v>0.8929332804772657</v>
       </c>
       <c r="D22">
-        <v>0.9925989824553454</v>
+        <v>0.9925989824553455</v>
       </c>
       <c r="E22">
-        <v>0.915565445308812</v>
+        <v>0.9155654453088128</v>
       </c>
       <c r="F22">
-        <v>0.9188028882271136</v>
+        <v>0.9188028882271145</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027174829668267</v>
       </c>
       <c r="J22">
-        <v>0.9292152047029574</v>
+        <v>0.9292152047029582</v>
       </c>
       <c r="K22">
         <v>1.008318494660978</v>
       </c>
       <c r="L22">
-        <v>0.933018135075195</v>
+        <v>0.9330181350751958</v>
       </c>
       <c r="M22">
-        <v>0.9361748463693046</v>
+        <v>0.9361748463693053</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8981468964770203</v>
+        <v>0.8981468964770194</v>
       </c>
       <c r="D23">
-        <v>0.9951315919485597</v>
+        <v>0.9951315919485598</v>
       </c>
       <c r="E23">
-        <v>0.9198580911197765</v>
+        <v>0.9198580911197757</v>
       </c>
       <c r="F23">
-        <v>0.9236578320993496</v>
+        <v>0.923657832099349</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028558211476777</v>
       </c>
       <c r="J23">
-        <v>0.9333208556835282</v>
+        <v>0.9333208556835275</v>
       </c>
       <c r="K23">
         <v>1.010485050148602</v>
       </c>
       <c r="L23">
-        <v>0.9368494236572525</v>
+        <v>0.9368494236572519</v>
       </c>
       <c r="M23">
-        <v>0.9405578933358376</v>
+        <v>0.9405578933358372</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9173753920649554</v>
+        <v>0.9173753920649551</v>
       </c>
       <c r="D24">
         <v>1.004560369194059</v>
       </c>
       <c r="E24">
-        <v>0.9357395544071081</v>
+        <v>0.9357395544071075</v>
       </c>
       <c r="F24">
-        <v>0.9416305666134912</v>
+        <v>0.9416305666134904</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033651582884705</v>
       </c>
       <c r="J24">
-        <v>0.948471967810698</v>
+        <v>0.9484719678106974</v>
       </c>
       <c r="K24">
         <v>1.018507870158616</v>
       </c>
       <c r="L24">
-        <v>0.9509976606401569</v>
+        <v>0.9509976606401563</v>
       </c>
       <c r="M24">
-        <v>0.9567665907438002</v>
+        <v>0.9567665907437994</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9375175865786549</v>
+        <v>0.9375175865786545</v>
       </c>
       <c r="D25">
         <v>1.014564548254927</v>
       </c>
       <c r="E25">
-        <v>0.9524551584937301</v>
+        <v>0.9524551584937297</v>
       </c>
       <c r="F25">
-        <v>0.960558702791907</v>
+        <v>0.9605587027919068</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.038948015478328</v>
       </c>
       <c r="J25">
-        <v>0.9643476002296274</v>
+        <v>0.964347600229627</v>
       </c>
       <c r="K25">
         <v>1.026940898649462</v>
       </c>
       <c r="L25">
-        <v>0.9658392938733065</v>
+        <v>0.965839293873306</v>
       </c>
       <c r="M25">
-        <v>0.9738017928662883</v>
+        <v>0.973801792866288</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9522160625268868</v>
+        <v>0.9522160625268866</v>
       </c>
       <c r="D2">
         <v>1.021928439784185</v>
       </c>
       <c r="E2">
-        <v>0.9647014918713357</v>
+        <v>0.9647014918713352</v>
       </c>
       <c r="F2">
-        <v>0.9744274383617734</v>
+        <v>0.974427438361773</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042765512655523</v>
       </c>
       <c r="J2">
-        <v>0.9759263679982112</v>
+        <v>0.975926367998211</v>
       </c>
       <c r="K2">
-        <v>1.033090501250862</v>
+        <v>1.033090501250861</v>
       </c>
       <c r="L2">
-        <v>0.976675524918726</v>
+        <v>0.9766755249187257</v>
       </c>
       <c r="M2">
-        <v>0.9862549228176742</v>
+        <v>0.9862549228176738</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9622381811365897</v>
+        <v>0.9622381811365893</v>
       </c>
       <c r="D3">
-        <v>1.026971511235466</v>
+        <v>1.026971511235465</v>
       </c>
       <c r="E3">
-        <v>0.9730739897741416</v>
+        <v>0.9730739897741413</v>
       </c>
       <c r="F3">
-        <v>0.9839071502246973</v>
+        <v>0.9839071502246963</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.045334601654814</v>
       </c>
       <c r="J3">
-        <v>0.9838140228801054</v>
+        <v>0.9838140228801052</v>
       </c>
       <c r="K3">
-        <v>1.037270536487775</v>
+        <v>1.037270536487773</v>
       </c>
       <c r="L3">
-        <v>0.9840633948951518</v>
+        <v>0.9840633948951516</v>
       </c>
       <c r="M3">
-        <v>0.9947501691547442</v>
+        <v>0.9947501691547435</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9684598000804115</v>
+        <v>0.9684598000804103</v>
       </c>
       <c r="D4">
-        <v>1.030108374301803</v>
+        <v>1.030108374301802</v>
       </c>
       <c r="E4">
-        <v>0.9782804146386884</v>
+        <v>0.9782804146386873</v>
       </c>
       <c r="F4">
-        <v>0.9898004339033469</v>
+        <v>0.9898004339033457</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.046912012068717</v>
       </c>
       <c r="J4">
-        <v>0.9887062277203623</v>
+        <v>0.9887062277203613</v>
       </c>
       <c r="K4">
         <v>1.039856506345472</v>
       </c>
       <c r="L4">
-        <v>0.9886482423650464</v>
+        <v>0.9886482423650454</v>
       </c>
       <c r="M4">
-        <v>1.000023537688389</v>
+        <v>1.000023537688387</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9710171392501705</v>
+        <v>0.9710171392501697</v>
       </c>
       <c r="D5">
-        <v>1.031398707393941</v>
+        <v>1.03139870739394</v>
       </c>
       <c r="E5">
-        <v>0.9804224082343784</v>
+        <v>0.9804224082343774</v>
       </c>
       <c r="F5">
-        <v>0.9922245145140032</v>
+        <v>0.9922245145140018</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.047555959405237</v>
       </c>
       <c r="J5">
-        <v>0.9907159462862165</v>
+        <v>0.9907159462862156</v>
       </c>
       <c r="K5">
-        <v>1.040916908124819</v>
+        <v>1.040916908124818</v>
       </c>
       <c r="L5">
-        <v>0.9905323084650551</v>
+        <v>0.9905323084650544</v>
       </c>
       <c r="M5">
-        <v>1.00219071593986</v>
+        <v>1.002190715939859</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9714432424589121</v>
+        <v>0.9714432424589124</v>
       </c>
       <c r="D6">
         <v>1.031613744045766</v>
       </c>
       <c r="E6">
-        <v>0.9807794157762318</v>
+        <v>0.9807794157762324</v>
       </c>
       <c r="F6">
-        <v>0.9926285058529855</v>
+        <v>0.9926285058529857</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.047662986129352</v>
       </c>
       <c r="J6">
-        <v>0.9910507322710648</v>
+        <v>0.9910507322710652</v>
       </c>
       <c r="K6">
         <v>1.04109343197493</v>
       </c>
       <c r="L6">
-        <v>0.9908461981795536</v>
+        <v>0.9908461981795541</v>
       </c>
       <c r="M6">
         <v>1.002551779477113</v>
@@ -620,7 +620,7 @@
         <v>0.9783092152678439</v>
       </c>
       <c r="F7">
-        <v>0.9898330294820825</v>
+        <v>0.9898330294820827</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9556607127968436</v>
+        <v>0.9556607127968439</v>
       </c>
       <c r="D8">
         <v>1.023660108239123</v>
       </c>
       <c r="E8">
-        <v>0.9675771485783183</v>
+        <v>0.9675771485783187</v>
       </c>
       <c r="F8">
-        <v>0.9776836726695364</v>
+        <v>0.9776836726695369</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.043652073472998</v>
       </c>
       <c r="J8">
-        <v>0.9786382352779539</v>
+        <v>0.9786382352779541</v>
       </c>
       <c r="K8">
-        <v>1.034528848969265</v>
+        <v>1.034528848969266</v>
       </c>
       <c r="L8">
-        <v>0.9792149876442705</v>
+        <v>0.9792149876442707</v>
       </c>
       <c r="M8">
-        <v>0.9891746655413091</v>
+        <v>0.9891746655413094</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9307751671070883</v>
+        <v>0.9307751671070887</v>
       </c>
       <c r="D9">
         <v>1.011203136786362</v>
       </c>
       <c r="E9">
-        <v>0.9468510336428538</v>
+        <v>0.9468510336428547</v>
       </c>
       <c r="F9">
-        <v>0.9542121094093503</v>
+        <v>0.954212109409351</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.037181750924688</v>
       </c>
       <c r="J9">
-        <v>0.9590337885141799</v>
+        <v>0.9590337885141804</v>
       </c>
       <c r="K9">
         <v>1.024117028763532</v>
       </c>
       <c r="L9">
-        <v>0.9608695916963345</v>
+        <v>0.960869591696335</v>
       </c>
       <c r="M9">
-        <v>0.9680944799717821</v>
+        <v>0.9680944799717827</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -731,10 +731,10 @@
         <v>1.002022163549383</v>
       </c>
       <c r="E10">
-        <v>0.9314783669796356</v>
+        <v>0.9314783669796357</v>
       </c>
       <c r="F10">
-        <v>0.9368068528108654</v>
+        <v>0.9368068528108658</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.032289612582002</v>
       </c>
       <c r="J10">
-        <v>0.9444128985778354</v>
+        <v>0.9444128985778357</v>
       </c>
       <c r="K10">
         <v>1.016355002942898</v>
       </c>
       <c r="L10">
-        <v>0.9472057654844812</v>
+        <v>0.9472057654844815</v>
       </c>
       <c r="M10">
-        <v>0.9524191886602384</v>
+        <v>0.9524191886602387</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9036011177299581</v>
+        <v>0.903601117729958</v>
       </c>
       <c r="D11">
-        <v>0.9977924561967501</v>
+        <v>0.9977924561967503</v>
       </c>
       <c r="E11">
-        <v>0.9243550859491416</v>
+        <v>0.9243550859491415</v>
       </c>
       <c r="F11">
-        <v>0.9287454011527627</v>
+        <v>0.9287454011527626</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030004859873919</v>
       </c>
       <c r="J11">
-        <v>0.9376173119005914</v>
+        <v>0.9376173119005915</v>
       </c>
       <c r="K11">
         <v>1.012756123983857</v>
       </c>
       <c r="L11">
-        <v>0.9408599450830757</v>
+        <v>0.9408599450830758</v>
       </c>
       <c r="M11">
-        <v>0.9451489667702389</v>
+        <v>0.9451489667702386</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9002949065954068</v>
+        <v>0.9002949065954071</v>
       </c>
       <c r="D12">
-        <v>0.9961781481692177</v>
+        <v>0.9961781481692178</v>
       </c>
       <c r="E12">
-        <v>0.9216283657990249</v>
+        <v>0.9216283657990254</v>
       </c>
       <c r="F12">
-        <v>0.9256604166889217</v>
+        <v>0.925660416688922</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.0291280399987</v>
       </c>
       <c r="J12">
-        <v>0.9350127604921307</v>
+        <v>0.9350127604921312</v>
       </c>
       <c r="K12">
         <v>1.011378936954149</v>
       </c>
       <c r="L12">
-        <v>0.9384285855863574</v>
+        <v>0.9384285855863581</v>
       </c>
       <c r="M12">
-        <v>0.9423652960085833</v>
+        <v>0.9423652960085837</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9010090131059413</v>
+        <v>0.9010090131059414</v>
       </c>
       <c r="D13">
-        <v>0.9965264702548954</v>
+        <v>0.9965264702548957</v>
       </c>
       <c r="E13">
-        <v>0.9222171121792455</v>
+        <v>0.9222171121792456</v>
       </c>
       <c r="F13">
-        <v>0.9263264742645608</v>
+        <v>0.9263264742645611</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>1.01167626282533</v>
       </c>
       <c r="L13">
-        <v>0.9389536610443058</v>
+        <v>0.9389536610443057</v>
       </c>
       <c r="M13">
-        <v>0.9429663650627454</v>
+        <v>0.9429663650627458</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.903330015330535</v>
+        <v>0.9033300153305354</v>
       </c>
       <c r="D14">
-        <v>0.9976599312357137</v>
+        <v>0.9976599312357139</v>
       </c>
       <c r="E14">
-        <v>0.9241314136163218</v>
+        <v>0.924131413616322</v>
       </c>
       <c r="F14">
-        <v>0.9284923211344039</v>
+        <v>0.9284923211344041</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.029932976913928</v>
       </c>
       <c r="J14">
-        <v>0.937403728150371</v>
+        <v>0.9374037281503712</v>
       </c>
       <c r="K14">
         <v>1.012643140159203</v>
       </c>
       <c r="L14">
-        <v>0.9406605469851861</v>
+        <v>0.9406605469851863</v>
       </c>
       <c r="M14">
-        <v>0.9449206350008317</v>
+        <v>0.9449206350008318</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9047459627611674</v>
+        <v>0.904745962761169</v>
       </c>
       <c r="D15">
-        <v>0.998352400523642</v>
+        <v>0.9983524005236433</v>
       </c>
       <c r="E15">
-        <v>0.9252998078209825</v>
+        <v>0.9252998078209845</v>
       </c>
       <c r="F15">
-        <v>0.9298143685675976</v>
+        <v>0.9298143685675998</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030308383233105</v>
       </c>
       <c r="J15">
-        <v>0.9385192894602451</v>
+        <v>0.9385192894602469</v>
       </c>
       <c r="K15">
-        <v>1.013233354367992</v>
+        <v>1.013233354367993</v>
       </c>
       <c r="L15">
-        <v>0.9417020489089591</v>
+        <v>0.941702048908961</v>
       </c>
       <c r="M15">
-        <v>0.9461133421849257</v>
+        <v>0.9461133421849276</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9127839780856303</v>
+        <v>0.9127839780856316</v>
       </c>
       <c r="D16">
         <v>1.002297114584807</v>
       </c>
       <c r="E16">
-        <v>0.9319404220065274</v>
+        <v>0.9319404220065284</v>
       </c>
       <c r="F16">
-        <v>0.9373298619145433</v>
+        <v>0.9373298619145441</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032437483454304</v>
       </c>
       <c r="J16">
-        <v>0.9448532613679737</v>
+        <v>0.9448532613679748</v>
       </c>
       <c r="K16">
         <v>1.01658846121862</v>
       </c>
       <c r="L16">
-        <v>0.9476170891547182</v>
+        <v>0.9476170891547191</v>
       </c>
       <c r="M16">
-        <v>0.9528906615139543</v>
+        <v>0.9528906615139551</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9176586781264047</v>
+        <v>0.9176586781264048</v>
       </c>
       <c r="D17">
         <v>1.004700236847954</v>
       </c>
       <c r="E17">
-        <v>0.9359740965505664</v>
+        <v>0.9359740965505663</v>
       </c>
       <c r="F17">
-        <v>0.9418960950963872</v>
+        <v>0.9418960950963875</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>0.9512062776862575</v>
       </c>
       <c r="M17">
-        <v>0.957005833951768</v>
+        <v>0.9570058339517682</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9204459909077264</v>
+        <v>0.9204459909077253</v>
       </c>
       <c r="D18">
-        <v>1.006077790106818</v>
+        <v>1.006077790106817</v>
       </c>
       <c r="E18">
-        <v>0.9382826621483352</v>
+        <v>0.9382826621483343</v>
       </c>
       <c r="F18">
-        <v>0.9445097743779504</v>
+        <v>0.9445097743779497</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.034462438307946</v>
       </c>
       <c r="J18">
-        <v>0.950892207340713</v>
+        <v>0.9508922073407123</v>
       </c>
       <c r="K18">
         <v>1.01979243123102</v>
       </c>
       <c r="L18">
-        <v>0.9532591292961209</v>
+        <v>0.9532591292961199</v>
       </c>
       <c r="M18">
-        <v>0.9593603989355314</v>
+        <v>0.9593603989355307</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9213872642682007</v>
+        <v>0.9213872642682003</v>
       </c>
       <c r="D19">
         <v>1.006543539616374</v>
       </c>
       <c r="E19">
-        <v>0.9390626118657627</v>
+        <v>0.9390626118657623</v>
       </c>
       <c r="F19">
-        <v>0.9453928529735013</v>
+        <v>0.9453928529735011</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.034710801228833</v>
       </c>
       <c r="J19">
-        <v>0.9516341323457186</v>
+        <v>0.9516341323457184</v>
       </c>
       <c r="K19">
-        <v>1.02018632831827</v>
+        <v>1.020186328318269</v>
       </c>
       <c r="L19">
-        <v>0.9539524635052897</v>
+        <v>0.9539524635052894</v>
       </c>
       <c r="M19">
-        <v>0.9601557724819737</v>
+        <v>0.9601557724819736</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9171415537109803</v>
+        <v>0.9171415537109804</v>
       </c>
       <c r="D20">
         <v>1.004444935041898</v>
       </c>
       <c r="E20">
-        <v>0.9355459638209852</v>
+        <v>0.9355459638209854</v>
       </c>
       <c r="F20">
-        <v>0.9414114017374204</v>
+        <v>0.9414114017374207</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         <v>1.018410073336817</v>
       </c>
       <c r="L20">
-        <v>0.9508254610553498</v>
+        <v>0.9508254610553499</v>
       </c>
       <c r="M20">
-        <v>0.9565691162092329</v>
+        <v>0.9565691162092333</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9026495050288599</v>
+        <v>0.9026495050288604</v>
       </c>
       <c r="D21">
-        <v>0.9973273936069504</v>
+        <v>0.9973273936069518</v>
       </c>
       <c r="E21">
-        <v>0.9235700286152069</v>
+        <v>0.923570028615208</v>
       </c>
       <c r="F21">
-        <v>0.9278571420402315</v>
+        <v>0.927857142040233</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029752526894269</v>
+        <v>1.02975252689427</v>
       </c>
       <c r="J21">
-        <v>0.9368676109903941</v>
+        <v>0.9368676109903951</v>
       </c>
       <c r="K21">
-        <v>1.012359576856574</v>
+        <v>1.012359576856575</v>
       </c>
       <c r="L21">
-        <v>0.9401600504999998</v>
+        <v>0.940160050500001</v>
       </c>
       <c r="M21">
-        <v>0.9443475453777891</v>
+        <v>0.9443475453777903</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,19 +1178,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8929332804772657</v>
+        <v>0.8929332804772648</v>
       </c>
       <c r="D22">
-        <v>0.9925989824553455</v>
+        <v>0.9925989824553454</v>
       </c>
       <c r="E22">
-        <v>0.9155654453088128</v>
+        <v>0.915565445308812</v>
       </c>
       <c r="F22">
-        <v>0.9188028882271145</v>
+        <v>0.9188028882271136</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.027174829668267</v>
       </c>
       <c r="J22">
-        <v>0.9292152047029582</v>
+        <v>0.9292152047029574</v>
       </c>
       <c r="K22">
         <v>1.008318494660978</v>
       </c>
       <c r="L22">
-        <v>0.9330181350751958</v>
+        <v>0.933018135075195</v>
       </c>
       <c r="M22">
-        <v>0.9361748463693053</v>
+        <v>0.9361748463693046</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8981468964770194</v>
+        <v>0.8981468964770203</v>
       </c>
       <c r="D23">
-        <v>0.9951315919485598</v>
+        <v>0.9951315919485597</v>
       </c>
       <c r="E23">
-        <v>0.9198580911197757</v>
+        <v>0.9198580911197765</v>
       </c>
       <c r="F23">
-        <v>0.923657832099349</v>
+        <v>0.9236578320993496</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.028558211476777</v>
       </c>
       <c r="J23">
-        <v>0.9333208556835275</v>
+        <v>0.9333208556835282</v>
       </c>
       <c r="K23">
         <v>1.010485050148602</v>
       </c>
       <c r="L23">
-        <v>0.9368494236572519</v>
+        <v>0.9368494236572525</v>
       </c>
       <c r="M23">
-        <v>0.9405578933358372</v>
+        <v>0.9405578933358376</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9173753920649551</v>
+        <v>0.9173753920649554</v>
       </c>
       <c r="D24">
         <v>1.004560369194059</v>
       </c>
       <c r="E24">
-        <v>0.9357395544071075</v>
+        <v>0.9357395544071081</v>
       </c>
       <c r="F24">
-        <v>0.9416305666134904</v>
+        <v>0.9416305666134912</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033651582884705</v>
       </c>
       <c r="J24">
-        <v>0.9484719678106974</v>
+        <v>0.948471967810698</v>
       </c>
       <c r="K24">
         <v>1.018507870158616</v>
       </c>
       <c r="L24">
-        <v>0.9509976606401563</v>
+        <v>0.9509976606401569</v>
       </c>
       <c r="M24">
-        <v>0.9567665907437994</v>
+        <v>0.9567665907438002</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9375175865786545</v>
+        <v>0.9375175865786549</v>
       </c>
       <c r="D25">
         <v>1.014564548254927</v>
       </c>
       <c r="E25">
-        <v>0.9524551584937297</v>
+        <v>0.9524551584937301</v>
       </c>
       <c r="F25">
-        <v>0.9605587027919068</v>
+        <v>0.960558702791907</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.038948015478328</v>
       </c>
       <c r="J25">
-        <v>0.964347600229627</v>
+        <v>0.9643476002296274</v>
       </c>
       <c r="K25">
         <v>1.026940898649462</v>
       </c>
       <c r="L25">
-        <v>0.965839293873306</v>
+        <v>0.9658392938733065</v>
       </c>
       <c r="M25">
-        <v>0.973801792866288</v>
+        <v>0.9738017928662883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9522160625268866</v>
+        <v>0.9522660151804007</v>
       </c>
       <c r="D2">
-        <v>1.021928439784185</v>
+        <v>1.021942774923239</v>
       </c>
       <c r="E2">
-        <v>0.9647014918713352</v>
+        <v>0.9647461313647309</v>
       </c>
       <c r="F2">
-        <v>0.974427438361773</v>
+        <v>0.9744625109848641</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042765512655523</v>
+        <v>1.042775916104196</v>
       </c>
       <c r="J2">
-        <v>0.975926367998211</v>
+        <v>0.9759746096279378</v>
       </c>
       <c r="K2">
-        <v>1.033090501250861</v>
+        <v>1.033104647289417</v>
       </c>
       <c r="L2">
-        <v>0.9766755249187257</v>
+        <v>0.9767194831865177</v>
       </c>
       <c r="M2">
-        <v>0.9862549228176738</v>
+        <v>0.9862894737045996</v>
+      </c>
+      <c r="N2">
+        <v>0.9853269154614533</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9622381811365893</v>
+        <v>0.9622786180130567</v>
       </c>
       <c r="D3">
-        <v>1.026971511235465</v>
+        <v>1.026983081951116</v>
       </c>
       <c r="E3">
-        <v>0.9730739897741413</v>
+        <v>0.9731102774334067</v>
       </c>
       <c r="F3">
-        <v>0.9839071502246963</v>
+        <v>0.9839354723083519</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045334601654814</v>
+        <v>1.045343023848251</v>
       </c>
       <c r="J3">
-        <v>0.9838140228801052</v>
+        <v>0.9838532349039009</v>
       </c>
       <c r="K3">
-        <v>1.037270536487773</v>
+        <v>1.037281968649453</v>
       </c>
       <c r="L3">
-        <v>0.9840633948951516</v>
+        <v>0.9840991853551897</v>
       </c>
       <c r="M3">
-        <v>0.9947501691547435</v>
+        <v>0.9947781138329647</v>
+      </c>
+      <c r="N3">
+        <v>0.9907801925547153</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9684598000804103</v>
+        <v>0.9684945029768596</v>
       </c>
       <c r="D4">
-        <v>1.030108374301802</v>
+        <v>1.03011828712405</v>
       </c>
       <c r="E4">
-        <v>0.9782804146386873</v>
+        <v>0.9783116560366131</v>
       </c>
       <c r="F4">
-        <v>0.9898004339033457</v>
+        <v>0.9898247042328007</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046912012068717</v>
+        <v>1.046919240742696</v>
       </c>
       <c r="J4">
-        <v>0.9887062277203613</v>
+        <v>0.9887399621840617</v>
       </c>
       <c r="K4">
-        <v>1.039856506345472</v>
+        <v>1.03986630799161</v>
       </c>
       <c r="L4">
-        <v>0.9886482423650454</v>
+        <v>0.9886790855259451</v>
       </c>
       <c r="M4">
-        <v>1.000023537688387</v>
+        <v>1.000047507542282</v>
+      </c>
+      <c r="N4">
+        <v>0.9941600151128247</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9710171392501697</v>
+        <v>0.9710495210995866</v>
       </c>
       <c r="D5">
-        <v>1.03139870739394</v>
+        <v>1.031407950813241</v>
       </c>
       <c r="E5">
-        <v>0.9804224082343774</v>
+        <v>0.9804516042522553</v>
       </c>
       <c r="F5">
-        <v>0.9922245145140018</v>
+        <v>0.9922471481673174</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047555959405237</v>
+        <v>1.04756270500124</v>
       </c>
       <c r="J5">
-        <v>0.9907159462862156</v>
+        <v>0.9907474556683745</v>
       </c>
       <c r="K5">
-        <v>1.040916908124818</v>
+        <v>1.04092605076728</v>
       </c>
       <c r="L5">
-        <v>0.9905323084650544</v>
+        <v>0.99056114368851</v>
       </c>
       <c r="M5">
-        <v>1.002190715939859</v>
+        <v>1.002213078087858</v>
+      </c>
+      <c r="N5">
+        <v>0.9955478194753811</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9714432424589124</v>
+        <v>0.9714752395360268</v>
       </c>
       <c r="D6">
-        <v>1.031613744045766</v>
+        <v>1.031622876588654</v>
       </c>
       <c r="E6">
-        <v>0.9807794157762324</v>
+        <v>0.9808082725756231</v>
       </c>
       <c r="F6">
-        <v>0.9926285058529857</v>
+        <v>0.9926508683765104</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047662986129352</v>
+        <v>1.047669651644431</v>
       </c>
       <c r="J6">
-        <v>0.9910507322710652</v>
+        <v>0.9910818723535065</v>
       </c>
       <c r="K6">
-        <v>1.04109343197493</v>
+        <v>1.041102465426242</v>
       </c>
       <c r="L6">
-        <v>0.9908461981795541</v>
+        <v>0.9908747002442008</v>
       </c>
       <c r="M6">
-        <v>1.002551779477113</v>
+        <v>1.00257387517647</v>
+      </c>
+      <c r="N6">
+        <v>0.9957789671024541</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9684941942380433</v>
+        <v>0.9685288657829761</v>
       </c>
       <c r="D7">
-        <v>1.030125725124301</v>
+        <v>1.030135628898103</v>
       </c>
       <c r="E7">
-        <v>0.9783092152678439</v>
+        <v>0.9783404290479562</v>
       </c>
       <c r="F7">
-        <v>0.9898330294820827</v>
+        <v>0.9898572776909993</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046920690537728</v>
+        <v>1.04692791268641</v>
       </c>
       <c r="J7">
-        <v>0.9887332616533867</v>
+        <v>0.9887669660918956</v>
       </c>
       <c r="K7">
-        <v>1.039870778454612</v>
+        <v>1.039880571195426</v>
       </c>
       <c r="L7">
-        <v>0.9886735836756806</v>
+        <v>0.9887043997346479</v>
       </c>
       <c r="M7">
-        <v>1.000052686420978</v>
+        <v>1.000076634554009</v>
+      </c>
+      <c r="N7">
+        <v>0.9941786858290974</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9556607127968439</v>
+        <v>0.9557073540910489</v>
       </c>
       <c r="D8">
-        <v>1.023660108239123</v>
+        <v>1.023673479558016</v>
       </c>
       <c r="E8">
-        <v>0.9675771485783187</v>
+        <v>0.967618885093108</v>
       </c>
       <c r="F8">
-        <v>0.9776836726695369</v>
+        <v>0.9777163924667334</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043652073472998</v>
+        <v>1.043661787377344</v>
       </c>
       <c r="J8">
-        <v>0.9786382352779541</v>
+        <v>0.9786833432908812</v>
       </c>
       <c r="K8">
-        <v>1.034528848969266</v>
+        <v>1.034542049482611</v>
       </c>
       <c r="L8">
-        <v>0.9792149876442707</v>
+        <v>0.9792561097241866</v>
       </c>
       <c r="M8">
-        <v>0.9891746655413094</v>
+        <v>0.9892069161677375</v>
+      </c>
+      <c r="N8">
+        <v>0.9872023273860535</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9307751671070887</v>
+        <v>0.9308468112063718</v>
       </c>
       <c r="D9">
-        <v>1.011203136786362</v>
+        <v>1.011223832161158</v>
       </c>
       <c r="E9">
-        <v>0.9468510336428547</v>
+        <v>0.9469145937283661</v>
       </c>
       <c r="F9">
-        <v>0.954212109409351</v>
+        <v>0.9542626904800583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037181750924688</v>
+        <v>1.037196674180896</v>
       </c>
       <c r="J9">
-        <v>0.9590337885141804</v>
+        <v>0.9591023341361588</v>
       </c>
       <c r="K9">
-        <v>1.024117028763532</v>
+        <v>1.02413739783515</v>
       </c>
       <c r="L9">
-        <v>0.960869591696335</v>
+        <v>0.9609319640263143</v>
       </c>
       <c r="M9">
-        <v>0.9680944799717827</v>
+        <v>0.9681441347050713</v>
+      </c>
+      <c r="N9">
+        <v>0.973635094339128</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9122252122047132</v>
+        <v>0.9123173931366002</v>
       </c>
       <c r="D10">
-        <v>1.002022163549383</v>
+        <v>1.002048948524529</v>
       </c>
       <c r="E10">
-        <v>0.9314783669796357</v>
+        <v>0.9315596758249165</v>
       </c>
       <c r="F10">
-        <v>0.9368068528108658</v>
+        <v>0.9368722616516846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032289612582002</v>
+        <v>1.032308818984175</v>
       </c>
       <c r="J10">
-        <v>0.9444128985778357</v>
+        <v>0.9445003207748877</v>
       </c>
       <c r="K10">
-        <v>1.016355002942898</v>
+        <v>1.016381306856558</v>
       </c>
       <c r="L10">
-        <v>0.9472057654844815</v>
+        <v>0.9472853054227809</v>
       </c>
       <c r="M10">
-        <v>0.9524191886602387</v>
+        <v>0.952483195850681</v>
+      </c>
+      <c r="N10">
+        <v>0.9635062069835858</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.903601117729958</v>
+        <v>0.9037035172538161</v>
       </c>
       <c r="D11">
-        <v>0.9977924561967503</v>
+        <v>0.9978222925006826</v>
       </c>
       <c r="E11">
-        <v>0.9243550859491415</v>
+        <v>0.9244451635797967</v>
       </c>
       <c r="F11">
-        <v>0.9287454011527626</v>
+        <v>0.9288182359438691</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030004859873919</v>
+        <v>1.03002619819517</v>
       </c>
       <c r="J11">
-        <v>0.9376173119005915</v>
+        <v>0.9377140063577785</v>
       </c>
       <c r="K11">
-        <v>1.012756123983857</v>
+        <v>1.012785394381027</v>
       </c>
       <c r="L11">
-        <v>0.9408599450830758</v>
+        <v>0.940947931506108</v>
       </c>
       <c r="M11">
-        <v>0.9451489667702386</v>
+        <v>0.9452201319003375</v>
+      </c>
+      <c r="N11">
+        <v>0.9587967227264959</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9002949065954071</v>
+        <v>0.9004013504381967</v>
       </c>
       <c r="D12">
-        <v>0.9961781481692178</v>
+        <v>0.9962091956065651</v>
       </c>
       <c r="E12">
-        <v>0.9216283657990254</v>
+        <v>0.9217219023196246</v>
       </c>
       <c r="F12">
-        <v>0.925660416688922</v>
+        <v>0.9257361987408494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0291280399987</v>
+        <v>1.029150222116526</v>
       </c>
       <c r="J12">
-        <v>0.9350127604921312</v>
+        <v>0.9351131034230857</v>
       </c>
       <c r="K12">
-        <v>1.011378936954149</v>
+        <v>1.011409383600069</v>
       </c>
       <c r="L12">
-        <v>0.9384285855863581</v>
+        <v>0.9385198976977904</v>
       </c>
       <c r="M12">
-        <v>0.9423652960085837</v>
+        <v>0.942439296795473</v>
+      </c>
+      <c r="N12">
+        <v>0.9569915405371372</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9010090131059414</v>
+        <v>0.9011145772009101</v>
       </c>
       <c r="D13">
-        <v>0.9965264702548957</v>
+        <v>0.9965572540785106</v>
       </c>
       <c r="E13">
-        <v>0.9222171121792456</v>
+        <v>0.9223098968604457</v>
       </c>
       <c r="F13">
-        <v>0.9263264742645611</v>
+        <v>0.9264016148232737</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029317453585959</v>
+        <v>1.029339452156396</v>
       </c>
       <c r="J13">
-        <v>0.9355752787963822</v>
+        <v>0.9356748290997623</v>
       </c>
       <c r="K13">
-        <v>1.01167626282533</v>
+        <v>1.01170645350643</v>
       </c>
       <c r="L13">
-        <v>0.9389536610443057</v>
+        <v>0.9390442505555057</v>
       </c>
       <c r="M13">
-        <v>0.9429663650627458</v>
+        <v>0.9430397488954014</v>
+      </c>
+      <c r="N13">
+        <v>0.957381421233001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9033300153305354</v>
+        <v>0.9034327437413794</v>
       </c>
       <c r="D14">
-        <v>0.9976599312357139</v>
+        <v>0.9976898659590444</v>
       </c>
       <c r="E14">
-        <v>0.924131413616322</v>
+        <v>0.9242217727730442</v>
       </c>
       <c r="F14">
-        <v>0.9284923211344041</v>
+        <v>0.9285653954288857</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029932976913928</v>
+        <v>1.029954383853567</v>
       </c>
       <c r="J14">
-        <v>0.9374037281503712</v>
+        <v>0.9375007197502938</v>
       </c>
       <c r="K14">
-        <v>1.012643140159203</v>
+        <v>1.012672506165726</v>
       </c>
       <c r="L14">
-        <v>0.9406605469851863</v>
+        <v>0.9407488042189646</v>
       </c>
       <c r="M14">
-        <v>0.9449206350008318</v>
+        <v>0.9449920306740802</v>
+      </c>
+      <c r="N14">
+        <v>0.9586486934363532</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.904745962761169</v>
+        <v>0.904846978721389</v>
       </c>
       <c r="D15">
-        <v>0.9983524005236433</v>
+        <v>0.9983818229364723</v>
       </c>
       <c r="E15">
-        <v>0.9252998078209845</v>
+        <v>0.9253887006482637</v>
       </c>
       <c r="F15">
-        <v>0.9298143685675998</v>
+        <v>0.9298861961482348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030308383233105</v>
+        <v>1.030329432890442</v>
       </c>
       <c r="J15">
-        <v>0.9385192894602469</v>
+        <v>0.9386147330253901</v>
       </c>
       <c r="K15">
-        <v>1.013233354367993</v>
+        <v>1.013262222642582</v>
       </c>
       <c r="L15">
-        <v>0.941702048908961</v>
+        <v>0.9417888953768145</v>
       </c>
       <c r="M15">
-        <v>0.9461133421849276</v>
+        <v>0.9461835375728749</v>
+      </c>
+      <c r="N15">
+        <v>0.9594218532326809</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9127839780856316</v>
+        <v>0.912875512652316</v>
       </c>
       <c r="D16">
-        <v>1.002297114584807</v>
+        <v>1.002323706997761</v>
       </c>
       <c r="E16">
-        <v>0.9319404220065284</v>
+        <v>0.9320211747817747</v>
       </c>
       <c r="F16">
-        <v>0.9373298619145441</v>
+        <v>0.93739480206771</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032437483454304</v>
+        <v>1.032456555013453</v>
       </c>
       <c r="J16">
-        <v>0.9448532613679748</v>
+        <v>0.9449400944238481</v>
       </c>
       <c r="K16">
-        <v>1.01658846121862</v>
+        <v>1.016614577771186</v>
       </c>
       <c r="L16">
-        <v>0.9476170891547191</v>
+        <v>0.9476960927002125</v>
       </c>
       <c r="M16">
-        <v>0.9528906615139551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9529542162827034</v>
+      </c>
+      <c r="N16">
+        <v>0.9638113591443116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9176586781264048</v>
+        <v>0.9177446505578872</v>
       </c>
       <c r="D17">
-        <v>1.004700236847954</v>
+        <v>1.004725174531142</v>
       </c>
       <c r="E17">
-        <v>0.9359740965505663</v>
+        <v>0.9360500573074663</v>
       </c>
       <c r="F17">
-        <v>0.9418960950963875</v>
+        <v>0.9419570073209574</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033726430071431</v>
+        <v>1.03374434134852</v>
       </c>
       <c r="J17">
-        <v>0.9486952491634593</v>
+        <v>0.9487769993378854</v>
       </c>
       <c r="K17">
-        <v>1.018626352749453</v>
+        <v>1.018650858476114</v>
       </c>
       <c r="L17">
-        <v>0.9512062776862575</v>
+        <v>0.9512806549273048</v>
       </c>
       <c r="M17">
-        <v>0.9570058339517682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9570654973162845</v>
+      </c>
+      <c r="N17">
+        <v>0.9664735058512829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9204459909077253</v>
+        <v>0.9205288429512815</v>
       </c>
       <c r="D18">
-        <v>1.006077790106817</v>
+        <v>1.006101801349164</v>
       </c>
       <c r="E18">
-        <v>0.9382826621483343</v>
+        <v>0.9383559291727378</v>
       </c>
       <c r="F18">
-        <v>0.9445097743779497</v>
+        <v>0.9445684311033633</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034462438307946</v>
+        <v>1.034479698733565</v>
       </c>
       <c r="J18">
-        <v>0.9508922073407123</v>
+        <v>0.9509710955634056</v>
       </c>
       <c r="K18">
-        <v>1.01979243123102</v>
+        <v>1.019816034460649</v>
       </c>
       <c r="L18">
-        <v>0.9532591292961199</v>
+        <v>0.9533309028798848</v>
       </c>
       <c r="M18">
-        <v>0.9593603989355307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9594178806552043</v>
+      </c>
+      <c r="N18">
+        <v>0.967995632340068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9213872642682003</v>
+        <v>0.9214690720984158</v>
       </c>
       <c r="D19">
-        <v>1.006543539616374</v>
+        <v>1.006567241141946</v>
       </c>
       <c r="E19">
-        <v>0.9390626118657623</v>
+        <v>0.9391349765945363</v>
       </c>
       <c r="F19">
-        <v>0.9453928529735011</v>
+        <v>0.9454507555986852</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034710801228833</v>
+        <v>1.034727843865985</v>
       </c>
       <c r="J19">
-        <v>0.9516341323457184</v>
+        <v>0.9517120611498364</v>
       </c>
       <c r="K19">
-        <v>1.020186328318269</v>
+        <v>1.020209629730607</v>
       </c>
       <c r="L19">
-        <v>0.9539524635052894</v>
+        <v>0.9540233644628939</v>
       </c>
       <c r="M19">
-        <v>0.9601557724819736</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.960212524371773</v>
+      </c>
+      <c r="N19">
+        <v>0.9685096327615976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9171415537109804</v>
+        <v>0.9172281097819741</v>
       </c>
       <c r="D20">
-        <v>1.004444935041898</v>
+        <v>1.00447004615885</v>
       </c>
       <c r="E20">
-        <v>0.9355459638209854</v>
+        <v>0.9356224279870433</v>
       </c>
       <c r="F20">
-        <v>0.9414114017374207</v>
+        <v>0.9414727361696249</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033589794532485</v>
+        <v>1.033607827551666</v>
       </c>
       <c r="J20">
-        <v>0.9482876610720482</v>
+        <v>0.948369945711954</v>
       </c>
       <c r="K20">
-        <v>1.018410073336817</v>
+        <v>1.018434747963255</v>
       </c>
       <c r="L20">
-        <v>0.9508254610553499</v>
+        <v>0.9509003246247356</v>
       </c>
       <c r="M20">
-        <v>0.9565691162092333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9566291877479419</v>
+      </c>
+      <c r="N20">
+        <v>0.9661911011745775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9026495050288604</v>
+        <v>0.9027530611339193</v>
       </c>
       <c r="D21">
-        <v>0.9973273936069518</v>
+        <v>0.9973575760738067</v>
       </c>
       <c r="E21">
-        <v>0.923570028615208</v>
+        <v>0.9236610960820281</v>
       </c>
       <c r="F21">
-        <v>0.927857142040233</v>
+        <v>0.927930819215523</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02975252689427</v>
+        <v>1.029774106522522</v>
       </c>
       <c r="J21">
-        <v>0.9368676109903951</v>
+        <v>0.9369653500446329</v>
       </c>
       <c r="K21">
-        <v>1.012359576856575</v>
+        <v>1.012389183513544</v>
       </c>
       <c r="L21">
-        <v>0.940160050500001</v>
+        <v>0.9402489889851042</v>
       </c>
       <c r="M21">
-        <v>0.9443475453777903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9444195212912337</v>
+      </c>
+      <c r="N21">
+        <v>0.9582771222485692</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8929332804772648</v>
+        <v>0.8930490019326943</v>
       </c>
       <c r="D22">
-        <v>0.9925989824553454</v>
+        <v>0.9926328150378264</v>
       </c>
       <c r="E22">
-        <v>0.915565445308812</v>
+        <v>0.9156668915351678</v>
       </c>
       <c r="F22">
-        <v>0.9188028882271136</v>
+        <v>0.9188854479532211</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027174829668267</v>
+        <v>1.027198947325455</v>
       </c>
       <c r="J22">
-        <v>0.9292152047029574</v>
+        <v>0.9293238727165974</v>
       </c>
       <c r="K22">
-        <v>1.008318494660978</v>
+        <v>1.00835164381686</v>
       </c>
       <c r="L22">
-        <v>0.933018135075195</v>
+        <v>0.933117039863024</v>
       </c>
       <c r="M22">
-        <v>0.9361748463693046</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9362553573403389</v>
+      </c>
+      <c r="N22">
+        <v>0.9529731168997762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8981468964770203</v>
+        <v>0.8982560076769889</v>
       </c>
       <c r="D23">
-        <v>0.9951315919485597</v>
+        <v>0.995163439180442</v>
       </c>
       <c r="E23">
-        <v>0.9198580911197765</v>
+        <v>0.919953905274935</v>
       </c>
       <c r="F23">
-        <v>0.9236578320993496</v>
+        <v>0.9237355604192802</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028558211476777</v>
+        <v>1.028580950095179</v>
       </c>
       <c r="J23">
-        <v>0.9333208556835282</v>
+        <v>0.9334235984092668</v>
       </c>
       <c r="K23">
-        <v>1.010485050148602</v>
+        <v>1.010516273196076</v>
       </c>
       <c r="L23">
-        <v>0.9368494236572525</v>
+        <v>0.9369429238667661</v>
       </c>
       <c r="M23">
-        <v>0.9405578933358376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9406337651071279</v>
+      </c>
+      <c r="N23">
+        <v>0.9558188657297265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9173753920649554</v>
+        <v>0.917461684035011</v>
       </c>
       <c r="D24">
-        <v>1.004560369194059</v>
+        <v>1.004585401825169</v>
       </c>
       <c r="E24">
-        <v>0.9357395544071081</v>
+        <v>0.9358157907937801</v>
       </c>
       <c r="F24">
-        <v>0.9416305666134912</v>
+        <v>0.9416917099807131</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033651582884705</v>
+        <v>1.033669560814509</v>
       </c>
       <c r="J24">
-        <v>0.948471967810698</v>
+        <v>0.9485540106337862</v>
       </c>
       <c r="K24">
-        <v>1.018507870158616</v>
+        <v>1.01853246835302</v>
       </c>
       <c r="L24">
-        <v>0.9509976606401569</v>
+        <v>0.9510723041683807</v>
       </c>
       <c r="M24">
-        <v>0.9567665907438002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9568264775762965</v>
+      </c>
+      <c r="N24">
+        <v>0.9663188019046355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9375175865786549</v>
+        <v>0.9375821949899523</v>
       </c>
       <c r="D25">
-        <v>1.014564548254927</v>
+        <v>1.014583172072424</v>
       </c>
       <c r="E25">
-        <v>0.9524551584937301</v>
+        <v>0.9525126004984599</v>
       </c>
       <c r="F25">
-        <v>0.960558702791907</v>
+        <v>0.9606042357470235</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038948015478328</v>
+        <v>1.038961472176089</v>
       </c>
       <c r="J25">
-        <v>0.9643476002296274</v>
+        <v>0.9644096022120247</v>
       </c>
       <c r="K25">
-        <v>1.026940898649462</v>
+        <v>1.026959243828612</v>
       </c>
       <c r="L25">
-        <v>0.9658392938733065</v>
+        <v>0.9658957251305733</v>
       </c>
       <c r="M25">
-        <v>0.9738017928662883</v>
+        <v>0.9738465419957337</v>
+      </c>
+      <c r="N25">
+        <v>0.9773144782076498</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9522660151804007</v>
+        <v>0.8816449903389016</v>
       </c>
       <c r="D2">
-        <v>1.021942774923239</v>
+        <v>1.028103444018581</v>
       </c>
       <c r="E2">
-        <v>0.9647461313647309</v>
+        <v>0.907367351574895</v>
       </c>
       <c r="F2">
-        <v>0.9744625109848641</v>
+        <v>0.9160096503938522</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042775916104196</v>
+        <v>1.040999223751635</v>
       </c>
       <c r="J2">
-        <v>0.9759746096279378</v>
+        <v>0.9080505629684644</v>
       </c>
       <c r="K2">
-        <v>1.033104647289417</v>
+        <v>1.039184659728659</v>
       </c>
       <c r="L2">
-        <v>0.9767194831865177</v>
+        <v>0.9202881644203205</v>
       </c>
       <c r="M2">
-        <v>0.9862894737045996</v>
+        <v>0.928777927655148</v>
       </c>
       <c r="N2">
-        <v>0.9853269154614533</v>
+        <v>0.909340098922735</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9622786180130567</v>
+        <v>0.9169609030197212</v>
       </c>
       <c r="D3">
-        <v>1.026983081951116</v>
+        <v>1.032301383465089</v>
       </c>
       <c r="E3">
-        <v>0.9731102774334067</v>
+        <v>0.9383891487117487</v>
       </c>
       <c r="F3">
-        <v>0.9839354723083519</v>
+        <v>0.9469005220890315</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045343023848251</v>
+        <v>1.04373275805737</v>
       </c>
       <c r="J3">
-        <v>0.9838532349039009</v>
+        <v>0.9400031929107202</v>
       </c>
       <c r="K3">
-        <v>1.037281968649453</v>
+        <v>1.042536993280768</v>
       </c>
       <c r="L3">
-        <v>0.9840991853551897</v>
+        <v>0.9498761620790749</v>
       </c>
       <c r="M3">
-        <v>0.9947781138329647</v>
+        <v>0.9582611421112788</v>
       </c>
       <c r="N3">
-        <v>0.9907801925547153</v>
+        <v>0.9413381052645269</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9684945029768596</v>
+        <v>0.9365985212919579</v>
       </c>
       <c r="D4">
-        <v>1.03011828712405</v>
+        <v>1.034769548930214</v>
       </c>
       <c r="E4">
-        <v>0.9783116560366131</v>
+        <v>0.9556741125138929</v>
       </c>
       <c r="F4">
-        <v>0.9898247042328007</v>
+        <v>0.9641291224498084</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046919240742696</v>
+        <v>1.045268637737616</v>
       </c>
       <c r="J4">
-        <v>0.9887399621840617</v>
+        <v>0.9577759045239173</v>
       </c>
       <c r="K4">
-        <v>1.03986630799161</v>
+        <v>1.044465693123136</v>
       </c>
       <c r="L4">
-        <v>0.9886790855259451</v>
+        <v>0.9663386848566292</v>
       </c>
       <c r="M4">
-        <v>1.000047507542282</v>
+        <v>0.9746806656223372</v>
       </c>
       <c r="N4">
-        <v>0.9941600151128247</v>
+        <v>0.959136056166773</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9710495210995866</v>
+        <v>0.9442859988249702</v>
       </c>
       <c r="D5">
-        <v>1.031407950813241</v>
+        <v>1.035761399133261</v>
       </c>
       <c r="E5">
-        <v>0.9804516042522553</v>
+        <v>0.9624459675090568</v>
       </c>
       <c r="F5">
-        <v>0.9922471481673174</v>
+        <v>0.9708816637017309</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04756270500124</v>
+        <v>1.045871595703642</v>
       </c>
       <c r="J5">
-        <v>0.9907474556683745</v>
+        <v>0.964733054872445</v>
       </c>
       <c r="K5">
-        <v>1.04092605076728</v>
+        <v>1.045232280532713</v>
       </c>
       <c r="L5">
-        <v>0.99056114368851</v>
+        <v>0.9727832128979967</v>
       </c>
       <c r="M5">
-        <v>1.002213078087858</v>
+        <v>0.9811109155400923</v>
       </c>
       <c r="N5">
-        <v>0.9955478194753811</v>
+        <v>0.9661030864667921</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9714752395360268</v>
+        <v>0.9455475585744503</v>
       </c>
       <c r="D6">
-        <v>1.031622876588654</v>
+        <v>1.035925533239964</v>
       </c>
       <c r="E6">
-        <v>0.9808082725756231</v>
+        <v>0.963557520228626</v>
       </c>
       <c r="F6">
-        <v>0.9926508683765104</v>
+        <v>0.9719901830984909</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047669651644431</v>
+        <v>1.045970597925657</v>
       </c>
       <c r="J6">
-        <v>0.9910818723535065</v>
+        <v>0.9658747153380077</v>
       </c>
       <c r="K6">
-        <v>1.041102465426242</v>
+        <v>1.045358674749104</v>
       </c>
       <c r="L6">
-        <v>0.9908747002442008</v>
+        <v>0.9738407473884017</v>
       </c>
       <c r="M6">
-        <v>1.00257387517647</v>
+        <v>0.9821662332696306</v>
       </c>
       <c r="N6">
-        <v>0.9957789671024541</v>
+        <v>0.9672463682211659</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9685288657829761</v>
+        <v>0.9367032791456731</v>
       </c>
       <c r="D7">
-        <v>1.030135628898103</v>
+        <v>1.034782968566081</v>
       </c>
       <c r="E7">
-        <v>0.9783404290479562</v>
+        <v>0.9557663745859452</v>
       </c>
       <c r="F7">
-        <v>0.9898572776909993</v>
+        <v>0.9642211114916436</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04692791268641</v>
+        <v>1.04527684966249</v>
       </c>
       <c r="J7">
-        <v>0.9887669660918956</v>
+        <v>0.957870712814424</v>
       </c>
       <c r="K7">
-        <v>1.039880571195426</v>
+        <v>1.044476097105206</v>
       </c>
       <c r="L7">
-        <v>0.9887043997346479</v>
+        <v>0.9664265073587037</v>
       </c>
       <c r="M7">
-        <v>1.000076634554009</v>
+        <v>0.9747682844206752</v>
       </c>
       <c r="N7">
-        <v>0.9941786858290974</v>
+        <v>0.959230999095927</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9557073540910489</v>
+        <v>0.8944068894021655</v>
       </c>
       <c r="D8">
-        <v>1.023673479558016</v>
+        <v>1.029584404033739</v>
       </c>
       <c r="E8">
-        <v>0.967618885093108</v>
+        <v>0.9185667867678878</v>
       </c>
       <c r="F8">
-        <v>0.9777163924667334</v>
+        <v>0.9271569906123042</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043661787377344</v>
+        <v>1.041981643154498</v>
       </c>
       <c r="J8">
-        <v>0.9786833432908812</v>
+        <v>0.9195945181401579</v>
       </c>
       <c r="K8">
-        <v>1.034542049482611</v>
+        <v>1.040378009729676</v>
       </c>
       <c r="L8">
-        <v>0.9792561097241866</v>
+        <v>0.9309758071785694</v>
       </c>
       <c r="M8">
-        <v>0.9892069161677375</v>
+        <v>0.9394232667813192</v>
       </c>
       <c r="N8">
-        <v>0.9872023273860535</v>
+        <v>0.9209004478348825</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9308468112063718</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D9">
-        <v>1.011223832161158</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E9">
-        <v>0.9469145937283661</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F9">
-        <v>0.9542626904800583</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037196674180896</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J9">
-        <v>0.9591023341361588</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K9">
-        <v>1.02413739783515</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L9">
-        <v>0.9609319640263143</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M9">
-        <v>0.9681441347050713</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N9">
-        <v>0.973635094339128</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9123173931366002</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D10">
-        <v>1.002048948524529</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E10">
-        <v>0.9315596758249165</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F10">
-        <v>0.9368722616516846</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032308818984175</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J10">
-        <v>0.9445003207748877</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K10">
-        <v>1.016381306856558</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L10">
-        <v>0.9472853054227809</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M10">
-        <v>0.952483195850681</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N10">
-        <v>0.9635062069835858</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9037035172538161</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D11">
-        <v>0.9978222925006826</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E11">
-        <v>0.9244451635797967</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F11">
-        <v>0.9288182359438691</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03002619819517</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J11">
-        <v>0.9377140063577785</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K11">
-        <v>1.012785394381027</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L11">
-        <v>0.940947931506108</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M11">
-        <v>0.9452201319003375</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N11">
-        <v>0.9587967227264959</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9004013504381967</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D12">
-        <v>0.9962091956065651</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E12">
-        <v>0.9217219023196246</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F12">
-        <v>0.9257361987408494</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029150222116526</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J12">
-        <v>0.9351131034230857</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K12">
-        <v>1.011409383600069</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L12">
-        <v>0.9385198976977904</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M12">
-        <v>0.942439296795473</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N12">
-        <v>0.9569915405371372</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9011145772009101</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D13">
-        <v>0.9965572540785106</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E13">
-        <v>0.9223098968604457</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F13">
-        <v>0.9264016148232737</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029339452156396</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J13">
-        <v>0.9356748290997623</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K13">
-        <v>1.01170645350643</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L13">
-        <v>0.9390442505555057</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M13">
-        <v>0.9430397488954014</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N13">
-        <v>0.957381421233001</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9034327437413794</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D14">
-        <v>0.9976898659590444</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E14">
-        <v>0.9242217727730442</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F14">
-        <v>0.9285653954288857</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029954383853567</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J14">
-        <v>0.9375007197502938</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K14">
-        <v>1.012672506165726</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L14">
-        <v>0.9407488042189646</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M14">
-        <v>0.9449920306740802</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N14">
-        <v>0.9586486934363532</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.904846978721389</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D15">
-        <v>0.9983818229364723</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E15">
-        <v>0.9253887006482637</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F15">
-        <v>0.9298861961482348</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030329432890442</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J15">
-        <v>0.9386147330253901</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K15">
-        <v>1.013262222642582</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L15">
-        <v>0.9417888953768145</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M15">
-        <v>0.9461835375728749</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N15">
-        <v>0.9594218532326809</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.912875512652316</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D16">
-        <v>1.002323706997761</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E16">
-        <v>0.9320211747817747</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F16">
-        <v>0.93739480206771</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032456555013453</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J16">
-        <v>0.9449400944238481</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K16">
-        <v>1.016614577771186</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L16">
-        <v>0.9476960927002125</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M16">
-        <v>0.9529542162827034</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N16">
-        <v>0.9638113591443116</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9177446505578872</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D17">
-        <v>1.004725174531142</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E17">
-        <v>0.9360500573074663</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F17">
-        <v>0.9419570073209574</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03374434134852</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J17">
-        <v>0.9487769993378854</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K17">
-        <v>1.018650858476114</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L17">
-        <v>0.9512806549273048</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M17">
-        <v>0.9570654973162845</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N17">
-        <v>0.9664735058512829</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9205288429512815</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D18">
-        <v>1.006101801349164</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E18">
-        <v>0.9383559291727378</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F18">
-        <v>0.9445684311033633</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034479698733565</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J18">
-        <v>0.9509710955634056</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K18">
-        <v>1.019816034460649</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L18">
-        <v>0.9533309028798848</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M18">
-        <v>0.9594178806552043</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N18">
-        <v>0.967995632340068</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9214690720984158</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D19">
-        <v>1.006567241141946</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E19">
-        <v>0.9391349765945363</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F19">
-        <v>0.9454507555986852</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034727843865985</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J19">
-        <v>0.9517120611498364</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K19">
-        <v>1.020209629730607</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L19">
-        <v>0.9540233644628939</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M19">
-        <v>0.960212524371773</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N19">
-        <v>0.9685096327615976</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9172281097819741</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D20">
-        <v>1.00447004615885</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E20">
-        <v>0.9356224279870433</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F20">
-        <v>0.9414727361696249</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033607827551666</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J20">
-        <v>0.948369945711954</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K20">
-        <v>1.018434747963255</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L20">
-        <v>0.9509003246247356</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M20">
-        <v>0.9566291877479419</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N20">
-        <v>0.9661911011745775</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9027530611339193</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D21">
-        <v>0.9973575760738067</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E21">
-        <v>0.9236610960820281</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F21">
-        <v>0.927930819215523</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029774106522522</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J21">
-        <v>0.9369653500446329</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K21">
-        <v>1.012389183513544</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L21">
-        <v>0.9402489889851042</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M21">
-        <v>0.9444195212912337</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N21">
-        <v>0.9582771222485692</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8930490019326943</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D22">
-        <v>0.9926328150378264</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E22">
-        <v>0.9156668915351678</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F22">
-        <v>0.9188854479532211</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027198947325455</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J22">
-        <v>0.9293238727165974</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K22">
-        <v>1.00835164381686</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L22">
-        <v>0.933117039863024</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M22">
-        <v>0.9362553573403389</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N22">
-        <v>0.9529731168997762</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8982560076769889</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D23">
-        <v>0.995163439180442</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E23">
-        <v>0.919953905274935</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F23">
-        <v>0.9237355604192802</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028580950095179</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J23">
-        <v>0.9334235984092668</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K23">
-        <v>1.010516273196076</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L23">
-        <v>0.9369429238667661</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M23">
-        <v>0.9406337651071279</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N23">
-        <v>0.9558188657297265</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.917461684035011</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D24">
-        <v>1.004585401825169</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E24">
-        <v>0.9358157907937801</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F24">
-        <v>0.9416917099807131</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033669560814509</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J24">
-        <v>0.9485540106337862</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K24">
-        <v>1.01853246835302</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L24">
-        <v>0.9510723041683807</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M24">
-        <v>0.9568264775762965</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N24">
-        <v>0.9663188019046355</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9375821949899523</v>
+        <v>0.7672081837291095</v>
       </c>
       <c r="D25">
-        <v>1.014583172072424</v>
+        <v>1.016669645630545</v>
       </c>
       <c r="E25">
-        <v>0.9525126004984599</v>
+        <v>0.8077456410192565</v>
       </c>
       <c r="F25">
-        <v>0.9606042357470235</v>
+        <v>0.8171642412747481</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038961472176089</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J25">
-        <v>0.9644096022120247</v>
+        <v>0.8048719618334947</v>
       </c>
       <c r="K25">
-        <v>1.026959243828612</v>
+        <v>1.029497937418666</v>
       </c>
       <c r="L25">
-        <v>0.9658957251305733</v>
+        <v>0.8249798125389525</v>
       </c>
       <c r="M25">
-        <v>0.9738465419957337</v>
+        <v>0.8341334506542878</v>
       </c>
       <c r="N25">
-        <v>0.9773144782076498</v>
+        <v>0.8060149723394027</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8816449903389016</v>
+        <v>0.9344339006548091</v>
       </c>
       <c r="D2">
-        <v>1.028103444018581</v>
+        <v>1.033087170002216</v>
       </c>
       <c r="E2">
-        <v>0.907367351574895</v>
+        <v>0.9491684424871903</v>
       </c>
       <c r="F2">
-        <v>0.9160096503938522</v>
+        <v>0.9586866249143099</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040999223751635</v>
+        <v>1.045844294676111</v>
       </c>
       <c r="J2">
-        <v>0.9080505629684644</v>
+        <v>0.9587696245090643</v>
       </c>
       <c r="K2">
-        <v>1.039184659728659</v>
+        <v>1.044104017957256</v>
       </c>
       <c r="L2">
-        <v>0.9202881644203205</v>
+        <v>0.9613845031530901</v>
       </c>
       <c r="M2">
-        <v>0.928777927655148</v>
+        <v>0.97075318961153</v>
       </c>
       <c r="N2">
-        <v>0.909340098922735</v>
+        <v>0.9888035549342256</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9169609030197212</v>
+        <v>0.9438422810709934</v>
       </c>
       <c r="D3">
-        <v>1.032301383465089</v>
+        <v>1.035411848060672</v>
       </c>
       <c r="E3">
-        <v>0.9383891487117487</v>
+        <v>0.9570201536358144</v>
       </c>
       <c r="F3">
-        <v>0.9469005220890315</v>
+        <v>0.9678087078758228</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04373275805737</v>
+        <v>1.04676281587797</v>
       </c>
       <c r="J3">
-        <v>0.9400031929107202</v>
+        <v>0.9659904369408122</v>
       </c>
       <c r="K3">
-        <v>1.042536993280768</v>
+        <v>1.045610822617383</v>
       </c>
       <c r="L3">
-        <v>0.9498761620790749</v>
+        <v>0.9682342012601558</v>
       </c>
       <c r="M3">
-        <v>0.9582611421112788</v>
+        <v>0.9788707543120249</v>
       </c>
       <c r="N3">
-        <v>0.9413381052645269</v>
+        <v>0.9914132866706621</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9365985212919579</v>
+        <v>0.9496951102019596</v>
       </c>
       <c r="D4">
-        <v>1.034769548930214</v>
+        <v>1.036877090817389</v>
       </c>
       <c r="E4">
-        <v>0.9556741125138929</v>
+        <v>0.96191326826735</v>
       </c>
       <c r="F4">
-        <v>0.9641291224498084</v>
+        <v>0.9734886849976786</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045268637737616</v>
+        <v>1.047324304993457</v>
       </c>
       <c r="J4">
-        <v>0.9577759045239173</v>
+        <v>0.9704794402856743</v>
       </c>
       <c r="K4">
-        <v>1.044465693123136</v>
+        <v>1.046549917419286</v>
       </c>
       <c r="L4">
-        <v>0.9663386848566292</v>
+        <v>0.9724941924706846</v>
       </c>
       <c r="M4">
-        <v>0.9746806656223372</v>
+        <v>0.9839179718675947</v>
       </c>
       <c r="N4">
-        <v>0.959136056166773</v>
+        <v>0.9930330952727586</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9442859988249702</v>
+        <v>0.9521035676989112</v>
       </c>
       <c r="D5">
-        <v>1.035761399133261</v>
+        <v>1.03748410076354</v>
       </c>
       <c r="E5">
-        <v>0.9624459675090568</v>
+        <v>0.9639286891189764</v>
       </c>
       <c r="F5">
-        <v>0.9708816637017309</v>
+        <v>0.9758269569025112</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045871595703642</v>
+        <v>1.047552776050875</v>
       </c>
       <c r="J5">
-        <v>0.964733054872445</v>
+        <v>0.972325848987095</v>
       </c>
       <c r="K5">
-        <v>1.045232280532713</v>
+        <v>1.046936431439151</v>
       </c>
       <c r="L5">
-        <v>0.9727832128979967</v>
+        <v>0.974246781495497</v>
       </c>
       <c r="M5">
-        <v>0.9811109155400923</v>
+        <v>0.985993981586023</v>
       </c>
       <c r="N5">
-        <v>0.9661030864667921</v>
+        <v>0.9936986673757442</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9455475585744503</v>
+        <v>0.9525050176704858</v>
       </c>
       <c r="D6">
-        <v>1.035925533239964</v>
+        <v>1.037585503543326</v>
       </c>
       <c r="E6">
-        <v>0.963557520228626</v>
+        <v>0.9642647323374629</v>
       </c>
       <c r="F6">
-        <v>0.9719901830984909</v>
+        <v>0.9762167549768637</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045970597925657</v>
+        <v>1.047590700660157</v>
       </c>
       <c r="J6">
-        <v>0.9658747153380077</v>
+        <v>0.9726335626708746</v>
       </c>
       <c r="K6">
-        <v>1.045358674749104</v>
+        <v>1.047000851757415</v>
       </c>
       <c r="L6">
-        <v>0.9738407473884017</v>
+        <v>0.9745388809964971</v>
       </c>
       <c r="M6">
-        <v>0.9821662332696306</v>
+        <v>0.9863399544624761</v>
       </c>
       <c r="N6">
-        <v>0.9672463682211659</v>
+        <v>0.9938095464687897</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9367032791456731</v>
+        <v>0.9497274915567203</v>
       </c>
       <c r="D7">
-        <v>1.034782968566081</v>
+        <v>1.036885236549631</v>
       </c>
       <c r="E7">
-        <v>0.9557663745859452</v>
+        <v>0.9619403580515159</v>
       </c>
       <c r="F7">
-        <v>0.9642211114916436</v>
+        <v>0.9735201193727989</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04527684966249</v>
+        <v>1.047327387258875</v>
       </c>
       <c r="J7">
-        <v>0.957870712814424</v>
+        <v>0.97050426841708</v>
       </c>
       <c r="K7">
-        <v>1.044476097105206</v>
+        <v>1.046555114186241</v>
       </c>
       <c r="L7">
-        <v>0.9664265073587037</v>
+        <v>0.9725177575782263</v>
       </c>
       <c r="M7">
-        <v>0.9747682844206752</v>
+        <v>0.9839458876119557</v>
       </c>
       <c r="N7">
-        <v>0.959230999095927</v>
+        <v>0.9930420478241256</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8944068894021655</v>
+        <v>0.9376648568278646</v>
       </c>
       <c r="D8">
-        <v>1.029584404033739</v>
+        <v>1.033881101576569</v>
       </c>
       <c r="E8">
-        <v>0.9185667867678878</v>
+        <v>0.9518628523703861</v>
       </c>
       <c r="F8">
-        <v>0.9271569906123042</v>
+        <v>0.9618179416530258</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041981643154498</v>
+        <v>1.046161699352455</v>
       </c>
       <c r="J8">
-        <v>0.9195945181401579</v>
+        <v>0.9612498957346098</v>
       </c>
       <c r="K8">
-        <v>1.040378009729676</v>
+        <v>1.044620885657831</v>
       </c>
       <c r="L8">
-        <v>0.9309758071785694</v>
+        <v>0.9637369189675304</v>
       </c>
       <c r="M8">
-        <v>0.9394232667813192</v>
+        <v>0.9735412168568669</v>
       </c>
       <c r="N8">
-        <v>0.9209004478348825</v>
+        <v>0.9897004822107582</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.7672081837291095</v>
+        <v>0.9143894468582159</v>
       </c>
       <c r="D9">
-        <v>1.016669645630545</v>
+        <v>1.028270773504837</v>
       </c>
       <c r="E9">
-        <v>0.8077456410192565</v>
+        <v>0.9325003904845274</v>
       </c>
       <c r="F9">
-        <v>0.8171642412747481</v>
+        <v>0.9392989945515015</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032611278246884</v>
+        <v>1.04384109162147</v>
       </c>
       <c r="J9">
-        <v>0.8048719618334947</v>
+        <v>0.9433750530580068</v>
       </c>
       <c r="K9">
-        <v>1.029497937418666</v>
+        <v>1.040921244257258</v>
       </c>
       <c r="L9">
-        <v>0.8249798125389525</v>
+        <v>0.9467925567126916</v>
       </c>
       <c r="M9">
-        <v>0.8341334506542878</v>
+        <v>0.9534601756341492</v>
       </c>
       <c r="N9">
-        <v>0.8060149723394027</v>
+        <v>0.9832279386884422</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7672081837291095</v>
+        <v>0.8971451172624607</v>
       </c>
       <c r="D10">
-        <v>1.016669645630545</v>
+        <v>1.024287921829331</v>
       </c>
       <c r="E10">
-        <v>0.8077456410192565</v>
+        <v>0.9182301583700024</v>
       </c>
       <c r="F10">
-        <v>0.8171642412747481</v>
+        <v>0.922686493401454</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032611278246884</v>
+        <v>1.042090061659224</v>
       </c>
       <c r="J10">
-        <v>0.8048719618334947</v>
+        <v>0.9301305211412642</v>
       </c>
       <c r="K10">
-        <v>1.029497937418666</v>
+        <v>1.038232073442908</v>
       </c>
       <c r="L10">
-        <v>0.8249798125389525</v>
+        <v>0.9342513590131922</v>
       </c>
       <c r="M10">
-        <v>0.8341334506542878</v>
+        <v>0.9386076128569626</v>
       </c>
       <c r="N10">
-        <v>0.8060149723394027</v>
+        <v>0.9784247696469299</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7672081837291095</v>
+        <v>0.8891615106642615</v>
       </c>
       <c r="D11">
-        <v>1.016669645630545</v>
+        <v>1.02249744347468</v>
       </c>
       <c r="E11">
-        <v>0.8077456410192565</v>
+        <v>0.9116465306158154</v>
       </c>
       <c r="F11">
-        <v>0.8171642412747481</v>
+        <v>0.9150206786753491</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032611278246884</v>
+        <v>1.041276423412403</v>
       </c>
       <c r="J11">
-        <v>0.8048719618334947</v>
+        <v>0.924001524642054</v>
       </c>
       <c r="K11">
-        <v>1.029497937418666</v>
+        <v>1.037007206545915</v>
       </c>
       <c r="L11">
-        <v>0.8249798125389525</v>
+        <v>0.9284519929226335</v>
       </c>
       <c r="M11">
-        <v>0.8341334506542878</v>
+        <v>0.9317452376247898</v>
       </c>
       <c r="N11">
-        <v>0.8060149723394027</v>
+        <v>0.9762017735173115</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7672081837291095</v>
+        <v>0.886106856652443</v>
       </c>
       <c r="D12">
-        <v>1.016669645630545</v>
+        <v>1.021821608689372</v>
       </c>
       <c r="E12">
-        <v>0.8077456410192565</v>
+        <v>0.9091315399726251</v>
       </c>
       <c r="F12">
-        <v>0.8171642412747481</v>
+        <v>0.912092278352994</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032611278246884</v>
+        <v>1.040965122885239</v>
       </c>
       <c r="J12">
-        <v>0.8048719618334947</v>
+        <v>0.9216572309477142</v>
       </c>
       <c r="K12">
-        <v>1.029497937418666</v>
+        <v>1.03654235142781</v>
       </c>
       <c r="L12">
-        <v>0.8249798125389525</v>
+        <v>0.9262344946828344</v>
       </c>
       <c r="M12">
-        <v>0.8341334506542878</v>
+        <v>0.9291225002195193</v>
       </c>
       <c r="N12">
-        <v>0.8060149723394027</v>
+        <v>0.9753515954082961</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7672081837291095</v>
+        <v>0.8867663397523603</v>
       </c>
       <c r="D13">
-        <v>1.016669645630545</v>
+        <v>1.021967080881664</v>
       </c>
       <c r="E13">
-        <v>0.8077456410192565</v>
+        <v>0.909674322227344</v>
       </c>
       <c r="F13">
-        <v>0.8171642412747481</v>
+        <v>0.9127242783761331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032611278246884</v>
+        <v>1.041032322516722</v>
       </c>
       <c r="J13">
-        <v>0.8048719618334947</v>
+        <v>0.9221633109917867</v>
       </c>
       <c r="K13">
-        <v>1.029497937418666</v>
+        <v>1.036642526450702</v>
       </c>
       <c r="L13">
-        <v>0.8249798125389525</v>
+        <v>0.9267131686427217</v>
       </c>
       <c r="M13">
-        <v>0.8341334506542878</v>
+        <v>0.9296885886784344</v>
       </c>
       <c r="N13">
-        <v>0.8060149723394027</v>
+        <v>0.9755351225395101</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7672081837291095</v>
+        <v>0.8889109073477127</v>
       </c>
       <c r="D14">
-        <v>1.016669645630545</v>
+        <v>1.022441804158103</v>
       </c>
       <c r="E14">
-        <v>0.8077456410192565</v>
+        <v>0.9114401167041096</v>
       </c>
       <c r="F14">
-        <v>0.8171642412747481</v>
+        <v>0.9147803334903873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032611278246884</v>
+        <v>1.041250881322499</v>
       </c>
       <c r="J14">
-        <v>0.8048719618334947</v>
+        <v>0.9238091817344241</v>
       </c>
       <c r="K14">
-        <v>1.029497937418666</v>
+        <v>1.036968988362309</v>
       </c>
       <c r="L14">
-        <v>0.8249798125389525</v>
+        <v>0.9282700382265631</v>
       </c>
       <c r="M14">
-        <v>0.8341334506542878</v>
+        <v>0.9315300045057535</v>
       </c>
       <c r="N14">
-        <v>0.8060149723394027</v>
+        <v>0.976132015771302</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7672081837291095</v>
+        <v>0.8902200392540401</v>
       </c>
       <c r="D15">
-        <v>1.016669645630545</v>
+        <v>1.0227328404895</v>
       </c>
       <c r="E15">
-        <v>0.8077456410192565</v>
+        <v>0.9125185723435952</v>
       </c>
       <c r="F15">
-        <v>0.8171642412747481</v>
+        <v>0.9160360718396383</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032611278246884</v>
+        <v>1.041384314457546</v>
       </c>
       <c r="J15">
-        <v>0.8048719618334947</v>
+        <v>0.9248139986418679</v>
       </c>
       <c r="K15">
-        <v>1.029497937418666</v>
+        <v>1.037168795640664</v>
       </c>
       <c r="L15">
-        <v>0.8249798125389525</v>
+        <v>0.9292206156486924</v>
       </c>
       <c r="M15">
-        <v>0.8341334506542878</v>
+        <v>0.9326544885264952</v>
       </c>
       <c r="N15">
-        <v>0.8060149723394027</v>
+        <v>0.976496441598137</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7672081837291095</v>
+        <v>0.8976631454939731</v>
       </c>
       <c r="D16">
-        <v>1.016669645630545</v>
+        <v>1.0244052911365</v>
       </c>
       <c r="E16">
-        <v>0.8077456410192565</v>
+        <v>0.9186578624550137</v>
       </c>
       <c r="F16">
-        <v>0.8171642412747481</v>
+        <v>0.9231844874926132</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032611278246884</v>
+        <v>1.042142831551596</v>
       </c>
       <c r="J16">
-        <v>0.8048719618334947</v>
+        <v>0.930528294373995</v>
       </c>
       <c r="K16">
-        <v>1.029497937418666</v>
+        <v>1.038312025300851</v>
       </c>
       <c r="L16">
-        <v>0.8249798125389525</v>
+        <v>0.9346278314640621</v>
       </c>
       <c r="M16">
-        <v>0.8341334506542878</v>
+        <v>0.9390532387963054</v>
       </c>
       <c r="N16">
-        <v>0.8060149723394027</v>
+        <v>0.9785690480838488</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7672081837291095</v>
+        <v>0.902186256264365</v>
       </c>
       <c r="D17">
-        <v>1.016669645630545</v>
+        <v>1.025436170860951</v>
       </c>
       <c r="E17">
-        <v>0.8077456410192565</v>
+        <v>0.9223949401055771</v>
       </c>
       <c r="F17">
-        <v>0.8171642412747481</v>
+        <v>0.9275355737565899</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032611278246884</v>
+        <v>1.042603303925802</v>
       </c>
       <c r="J17">
-        <v>0.8048719618334947</v>
+        <v>0.934001758177494</v>
       </c>
       <c r="K17">
-        <v>1.029497937418666</v>
+        <v>1.039012441276624</v>
       </c>
       <c r="L17">
-        <v>0.8249798125389525</v>
+        <v>0.9379157632563786</v>
       </c>
       <c r="M17">
-        <v>0.8341334506542878</v>
+        <v>0.9429458088389047</v>
       </c>
       <c r="N17">
-        <v>0.8060149723394027</v>
+        <v>0.9798289083025664</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7672081837291095</v>
+        <v>0.9047755530161957</v>
       </c>
       <c r="D18">
-        <v>1.016669645630545</v>
+        <v>1.026031176241973</v>
       </c>
       <c r="E18">
-        <v>0.8077456410192565</v>
+        <v>0.9245363619122565</v>
       </c>
       <c r="F18">
-        <v>0.8171642412747481</v>
+        <v>0.9300286727086583</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032611278246884</v>
+        <v>1.042866599270099</v>
       </c>
       <c r="J18">
-        <v>0.8048719618334947</v>
+        <v>0.9359904123641508</v>
       </c>
       <c r="K18">
-        <v>1.029497937418666</v>
+        <v>1.039415212470334</v>
       </c>
       <c r="L18">
-        <v>0.8249798125389525</v>
+        <v>0.9397985740363426</v>
       </c>
       <c r="M18">
-        <v>0.8341334506542878</v>
+        <v>0.945175376645374</v>
       </c>
       <c r="N18">
-        <v>0.8060149723394027</v>
+        <v>0.9805501753503587</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7672081837291095</v>
+        <v>0.9056504444912969</v>
       </c>
       <c r="D19">
-        <v>1.016669645630545</v>
+        <v>1.026233014852892</v>
       </c>
       <c r="E19">
-        <v>0.8077456410192565</v>
+        <v>0.9252602634127082</v>
       </c>
       <c r="F19">
-        <v>0.8171642412747481</v>
+        <v>0.9308714240560211</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032611278246884</v>
+        <v>1.042955499273158</v>
       </c>
       <c r="J19">
-        <v>0.8048719618334947</v>
+        <v>0.9366623857060993</v>
       </c>
       <c r="K19">
-        <v>1.029497937418666</v>
+        <v>1.039551590373675</v>
       </c>
       <c r="L19">
-        <v>0.8249798125389525</v>
+        <v>0.9404348444229458</v>
       </c>
       <c r="M19">
-        <v>0.8341334506542878</v>
+        <v>0.9459289070487125</v>
       </c>
       <c r="N19">
-        <v>0.8060149723394027</v>
+        <v>0.9807938837643631</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7672081837291095</v>
+        <v>0.9017061088896449</v>
       </c>
       <c r="D20">
-        <v>1.016669645630545</v>
+        <v>1.025326223549722</v>
       </c>
       <c r="E20">
-        <v>0.8077456410192565</v>
+        <v>0.9219980115291433</v>
       </c>
       <c r="F20">
-        <v>0.8171642412747481</v>
+        <v>0.927073444524079</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032611278246884</v>
+        <v>1.042554451761512</v>
       </c>
       <c r="J20">
-        <v>0.8048719618334947</v>
+        <v>0.9336330083975027</v>
       </c>
       <c r="K20">
-        <v>1.029497937418666</v>
+        <v>1.038937895365932</v>
       </c>
       <c r="L20">
-        <v>0.8249798125389525</v>
+        <v>0.9375666698858434</v>
       </c>
       <c r="M20">
-        <v>0.8341334506542878</v>
+        <v>0.9425324625990676</v>
       </c>
       <c r="N20">
-        <v>0.8060149723394027</v>
+        <v>0.9796951620465376</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7672081837291095</v>
+        <v>0.8882819532427469</v>
       </c>
       <c r="D21">
-        <v>1.016669645630545</v>
+        <v>1.02230231520459</v>
       </c>
       <c r="E21">
-        <v>0.8077456410192565</v>
+        <v>0.910922133704538</v>
       </c>
       <c r="F21">
-        <v>0.8171642412747481</v>
+        <v>0.9141772027919192</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032611278246884</v>
+        <v>1.041186778639493</v>
       </c>
       <c r="J21">
-        <v>0.8048719618334947</v>
+        <v>0.9233264606422317</v>
       </c>
       <c r="K21">
-        <v>1.029497937418666</v>
+        <v>1.03687313361877</v>
       </c>
       <c r="L21">
-        <v>0.8249798125389525</v>
+        <v>0.9278134001166711</v>
       </c>
       <c r="M21">
-        <v>0.8341334506542878</v>
+        <v>0.9309898709166132</v>
       </c>
       <c r="N21">
-        <v>0.8060149723394027</v>
+        <v>0.9759569475954331</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7672081837291095</v>
+        <v>0.8793178927245858</v>
       </c>
       <c r="D22">
-        <v>1.016669645630545</v>
+        <v>1.020338175854147</v>
       </c>
       <c r="E22">
-        <v>0.8077456410192565</v>
+        <v>0.903550117933819</v>
       </c>
       <c r="F22">
-        <v>0.8171642412747481</v>
+        <v>0.9055936741038546</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032611278246884</v>
+        <v>1.040273844430842</v>
       </c>
       <c r="J22">
-        <v>0.8048719618334947</v>
+        <v>0.9164488786932301</v>
       </c>
       <c r="K22">
-        <v>1.029497937418666</v>
+        <v>1.035517216994273</v>
       </c>
       <c r="L22">
-        <v>0.8249798125389525</v>
+        <v>0.9213092867464997</v>
       </c>
       <c r="M22">
-        <v>0.8341334506542878</v>
+        <v>0.9232999401939173</v>
       </c>
       <c r="N22">
-        <v>0.8060149723394027</v>
+        <v>0.9734631124417215</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7672081837291095</v>
+        <v>0.8841241273308585</v>
       </c>
       <c r="D23">
-        <v>1.016669645630545</v>
+        <v>1.021385703667793</v>
       </c>
       <c r="E23">
-        <v>0.8077456410192565</v>
+        <v>0.907500306632438</v>
       </c>
       <c r="F23">
-        <v>0.8171642412747481</v>
+        <v>0.9101929363476231</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032611278246884</v>
+        <v>1.040763128209566</v>
       </c>
       <c r="J23">
-        <v>0.8048719618334947</v>
+        <v>0.9201358469099705</v>
       </c>
       <c r="K23">
-        <v>1.029497937418666</v>
+        <v>1.036241799034682</v>
       </c>
       <c r="L23">
-        <v>0.8249798125389525</v>
+        <v>0.9247956118478917</v>
       </c>
       <c r="M23">
-        <v>0.8341334506542878</v>
+        <v>0.9274210610255911</v>
       </c>
       <c r="N23">
-        <v>0.8060149723394027</v>
+        <v>0.9747999012178358</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7672081837291095</v>
+        <v>0.9019232172638841</v>
       </c>
       <c r="D24">
-        <v>1.016669645630545</v>
+        <v>1.025375923379303</v>
       </c>
       <c r="E24">
-        <v>0.8077456410192565</v>
+        <v>0.9221774843435104</v>
       </c>
       <c r="F24">
-        <v>0.8171642412747481</v>
+        <v>0.927282398592931</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032611278246884</v>
+        <v>1.042576542245498</v>
       </c>
       <c r="J24">
-        <v>0.8048719618334947</v>
+        <v>0.9337997453736302</v>
       </c>
       <c r="K24">
-        <v>1.029497937418666</v>
+        <v>1.038971597225092</v>
       </c>
       <c r="L24">
-        <v>0.8249798125389525</v>
+        <v>0.9377245176825799</v>
       </c>
       <c r="M24">
-        <v>0.8341334506542878</v>
+        <v>0.9427193617136027</v>
       </c>
       <c r="N24">
-        <v>0.8060149723394027</v>
+        <v>0.9797556379973985</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7672081837291095</v>
+        <v>0.9206801843354265</v>
       </c>
       <c r="D25">
-        <v>1.016669645630545</v>
+        <v>1.029761491605717</v>
       </c>
       <c r="E25">
-        <v>0.8077456410192565</v>
+        <v>0.9377224327303733</v>
       </c>
       <c r="F25">
-        <v>0.8171642412747481</v>
+        <v>0.9453756316191545</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032611278246884</v>
+        <v>1.044474912994698</v>
       </c>
       <c r="J25">
-        <v>0.8048719618334947</v>
+        <v>0.9482072564174457</v>
       </c>
       <c r="K25">
-        <v>1.029497937418666</v>
+        <v>1.041914720898187</v>
       </c>
       <c r="L25">
-        <v>0.8249798125389525</v>
+        <v>0.951371129502986</v>
       </c>
       <c r="M25">
-        <v>0.8341334506542878</v>
+        <v>0.9588855598451504</v>
       </c>
       <c r="N25">
-        <v>0.8060149723394027</v>
+        <v>0.984979319541242</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9344339006548091</v>
+        <v>1.008355500328646</v>
       </c>
       <c r="D2">
-        <v>1.033087170002216</v>
+        <v>1.031862482820368</v>
       </c>
       <c r="E2">
-        <v>0.9491684424871903</v>
+        <v>1.010850847508915</v>
       </c>
       <c r="F2">
-        <v>0.9586866249143099</v>
+        <v>1.02340218746966</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045844294676111</v>
+        <v>1.031136902952628</v>
       </c>
       <c r="J2">
-        <v>0.9587696245090643</v>
+        <v>1.013621809153451</v>
       </c>
       <c r="K2">
-        <v>1.044104017957256</v>
+        <v>1.034669374833291</v>
       </c>
       <c r="L2">
-        <v>0.9613845031530901</v>
+        <v>1.013719791725444</v>
       </c>
       <c r="M2">
-        <v>0.97075318961153</v>
+        <v>1.026233731250371</v>
       </c>
       <c r="N2">
-        <v>0.9888035549342256</v>
+        <v>1.008457817609619</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9438422810709934</v>
+        <v>1.010119072505176</v>
       </c>
       <c r="D3">
-        <v>1.035411848060672</v>
+        <v>1.032308744751241</v>
       </c>
       <c r="E3">
-        <v>0.9570201536358144</v>
+        <v>1.012374099252135</v>
       </c>
       <c r="F3">
-        <v>0.9678087078758228</v>
+        <v>1.02515244823389</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04676281587797</v>
+        <v>1.031231007818702</v>
       </c>
       <c r="J3">
-        <v>0.9659904369408122</v>
+        <v>1.015012910850549</v>
       </c>
       <c r="K3">
-        <v>1.045610822617383</v>
+        <v>1.034925260177525</v>
       </c>
       <c r="L3">
-        <v>0.9682342012601558</v>
+        <v>1.015045196086176</v>
       </c>
       <c r="M3">
-        <v>0.9788707543120249</v>
+        <v>1.027788293297456</v>
       </c>
       <c r="N3">
-        <v>0.9914132866706621</v>
+        <v>1.008941661028133</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9496951102019596</v>
+        <v>1.011257240933905</v>
       </c>
       <c r="D4">
-        <v>1.036877090817389</v>
+        <v>1.032596757619517</v>
       </c>
       <c r="E4">
-        <v>0.96191326826735</v>
+        <v>1.013357282464112</v>
       </c>
       <c r="F4">
-        <v>0.9734886849976786</v>
+        <v>1.026281169441578</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047324304993457</v>
+        <v>1.031289914643131</v>
       </c>
       <c r="J4">
-        <v>0.9704794402856743</v>
+        <v>1.015909912525705</v>
       </c>
       <c r="K4">
-        <v>1.046549917419286</v>
+        <v>1.035089359344523</v>
       </c>
       <c r="L4">
-        <v>0.9724941924706846</v>
+        <v>1.01589988997523</v>
       </c>
       <c r="M4">
-        <v>0.9839179718675947</v>
+        <v>1.028789963106094</v>
       </c>
       <c r="N4">
-        <v>0.9930330952727586</v>
+        <v>1.009253016127193</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9521035676989112</v>
+        <v>1.011735030463957</v>
       </c>
       <c r="D5">
-        <v>1.03748410076354</v>
+        <v>1.032717658114054</v>
       </c>
       <c r="E5">
-        <v>0.9639286891189764</v>
+        <v>1.013770036635452</v>
       </c>
       <c r="F5">
-        <v>0.9758269569025112</v>
+        <v>1.02675478593049</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047552776050875</v>
+        <v>1.031314203978149</v>
       </c>
       <c r="J5">
-        <v>0.972325848987095</v>
+        <v>1.016286275059398</v>
       </c>
       <c r="K5">
-        <v>1.046936431439151</v>
+        <v>1.035157992971316</v>
       </c>
       <c r="L5">
-        <v>0.974246781495497</v>
+        <v>1.016258513960801</v>
       </c>
       <c r="M5">
-        <v>0.985993981586023</v>
+        <v>1.029210064905027</v>
       </c>
       <c r="N5">
-        <v>0.9936986673757442</v>
+        <v>1.009383501561096</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9525050176704858</v>
+        <v>1.011815213080607</v>
       </c>
       <c r="D6">
-        <v>1.037585503543326</v>
+        <v>1.032737947249239</v>
       </c>
       <c r="E6">
-        <v>0.9642647323374629</v>
+        <v>1.013839306486317</v>
       </c>
       <c r="F6">
-        <v>0.9762167549768637</v>
+        <v>1.026834256010785</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047590700660157</v>
+        <v>1.031318254409935</v>
       </c>
       <c r="J6">
-        <v>0.9726335626708746</v>
+        <v>1.016349425153905</v>
       </c>
       <c r="K6">
-        <v>1.047000851757415</v>
+        <v>1.035169496109278</v>
       </c>
       <c r="L6">
-        <v>0.9745388809964971</v>
+        <v>1.016318688442926</v>
       </c>
       <c r="M6">
-        <v>0.9863399544624761</v>
+        <v>1.029280543594021</v>
       </c>
       <c r="N6">
-        <v>0.9938095464687897</v>
+        <v>1.009405386828473</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9497274915567203</v>
+        <v>1.011263627894369</v>
       </c>
       <c r="D7">
-        <v>1.036885236549631</v>
+        <v>1.032598373806598</v>
       </c>
       <c r="E7">
-        <v>0.9619403580515159</v>
+        <v>1.013362799950615</v>
       </c>
       <c r="F7">
-        <v>0.9735201193727989</v>
+        <v>1.02628750143548</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047327387258875</v>
+        <v>1.031290241064828</v>
       </c>
       <c r="J7">
-        <v>0.97050426841708</v>
+        <v>1.015914944377866</v>
       </c>
       <c r="K7">
-        <v>1.046555114186241</v>
+        <v>1.035090277820369</v>
       </c>
       <c r="L7">
-        <v>0.9725177575782263</v>
+        <v>1.015904684618048</v>
       </c>
       <c r="M7">
-        <v>0.9839458876119557</v>
+        <v>1.028795580437932</v>
       </c>
       <c r="N7">
-        <v>0.9930420478241256</v>
+        <v>1.009254761277954</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9376648568278646</v>
+        <v>1.008952135320147</v>
       </c>
       <c r="D8">
-        <v>1.033881101576569</v>
+        <v>1.032013453544404</v>
       </c>
       <c r="E8">
-        <v>0.9518628523703861</v>
+        <v>1.011366155602676</v>
       </c>
       <c r="F8">
-        <v>0.9618179416530258</v>
+        <v>1.023994495374074</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046161699352455</v>
+        <v>1.031169117328695</v>
       </c>
       <c r="J8">
-        <v>0.9612498957346098</v>
+        <v>1.014092595504263</v>
       </c>
       <c r="K8">
-        <v>1.044620885657831</v>
+        <v>1.034756157838758</v>
       </c>
       <c r="L8">
-        <v>0.9637369189675304</v>
+        <v>1.014168332821032</v>
       </c>
       <c r="M8">
-        <v>0.9735412168568669</v>
+        <v>1.026759988211323</v>
       </c>
       <c r="N8">
-        <v>0.9897004822107582</v>
+        <v>1.008621694415907</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9143894468582159</v>
+        <v>1.004855389828109</v>
       </c>
       <c r="D9">
-        <v>1.028270773504837</v>
+        <v>1.030977056932842</v>
       </c>
       <c r="E9">
-        <v>0.9325003904845274</v>
+        <v>1.00782834472848</v>
       </c>
       <c r="F9">
-        <v>0.9392989945515015</v>
+        <v>1.019924019591568</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04384109162147</v>
+        <v>1.030940466761065</v>
       </c>
       <c r="J9">
-        <v>0.9433750530580068</v>
+        <v>1.01085677761882</v>
       </c>
       <c r="K9">
-        <v>1.040921244257258</v>
+        <v>1.034156107733131</v>
       </c>
       <c r="L9">
-        <v>0.9467925567126916</v>
+        <v>1.011085646497541</v>
       </c>
       <c r="M9">
-        <v>0.9534601756341492</v>
+        <v>1.023139946812617</v>
       </c>
       <c r="N9">
-        <v>0.9832279386884422</v>
+        <v>1.007492744386687</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8971451172624607</v>
+        <v>1.002107274366038</v>
       </c>
       <c r="D10">
-        <v>1.024287921829331</v>
+        <v>1.03028234931679</v>
       </c>
       <c r="E10">
-        <v>0.9182301583700024</v>
+        <v>1.005455858928028</v>
       </c>
       <c r="F10">
-        <v>0.922686493401454</v>
+        <v>1.017189288261364</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042090061659224</v>
+        <v>1.030777786946658</v>
       </c>
       <c r="J10">
-        <v>0.9301305211412642</v>
+        <v>1.00868217432303</v>
       </c>
       <c r="K10">
-        <v>1.038232073442908</v>
+        <v>1.033748501543117</v>
       </c>
       <c r="L10">
-        <v>0.9342513590131922</v>
+        <v>1.009014259468418</v>
       </c>
       <c r="M10">
-        <v>0.9386076128569626</v>
+        <v>1.020703469636454</v>
       </c>
       <c r="N10">
-        <v>0.9784247696469299</v>
+        <v>1.006730813217755</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8891615106642615</v>
+        <v>1.000913046507045</v>
       </c>
       <c r="D11">
-        <v>1.02249744347468</v>
+        <v>1.029980647278354</v>
       </c>
       <c r="E11">
-        <v>0.9116465306158154</v>
+        <v>1.004425046928264</v>
       </c>
       <c r="F11">
-        <v>0.9150206786753491</v>
+        <v>1.015999900643611</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041276423412403</v>
+        <v>1.030704910146481</v>
       </c>
       <c r="J11">
-        <v>0.924001524642054</v>
+        <v>1.00773623209878</v>
       </c>
       <c r="K11">
-        <v>1.037007206545915</v>
+        <v>1.033570209960555</v>
       </c>
       <c r="L11">
-        <v>0.9284519929226335</v>
+        <v>1.00811329144943</v>
       </c>
       <c r="M11">
-        <v>0.9317452376247898</v>
+        <v>1.019642766682969</v>
       </c>
       <c r="N11">
-        <v>0.9762017735173115</v>
+        <v>1.006398619203517</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.886106856652443</v>
+        <v>1.000468793701433</v>
       </c>
       <c r="D12">
-        <v>1.021821608689372</v>
+        <v>1.029868448838169</v>
       </c>
       <c r="E12">
-        <v>0.9091315399726251</v>
+        <v>1.004041613481</v>
       </c>
       <c r="F12">
-        <v>0.912092278352994</v>
+        <v>1.015557304230258</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040965122885239</v>
+        <v>1.030677474103791</v>
       </c>
       <c r="J12">
-        <v>0.9216572309477142</v>
+        <v>1.007384200825833</v>
       </c>
       <c r="K12">
-        <v>1.03654235142781</v>
+        <v>1.033503714892501</v>
       </c>
       <c r="L12">
-        <v>0.9262344946828344</v>
+        <v>1.007778008899381</v>
       </c>
       <c r="M12">
-        <v>0.9291225002195193</v>
+        <v>1.019247901894614</v>
       </c>
       <c r="N12">
-        <v>0.9753515954082961</v>
+        <v>1.006274880506629</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8867663397523603</v>
+        <v>1.000564117797152</v>
       </c>
       <c r="D13">
-        <v>1.021967080881664</v>
+        <v>1.029892521786199</v>
       </c>
       <c r="E13">
-        <v>0.909674322227344</v>
+        <v>1.004123886142333</v>
       </c>
       <c r="F13">
-        <v>0.9127242783761331</v>
+        <v>1.015652279394395</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041032322516722</v>
+        <v>1.030683375814145</v>
       </c>
       <c r="J13">
-        <v>0.9221633109917867</v>
+        <v>1.007459743143274</v>
       </c>
       <c r="K13">
-        <v>1.036642526450702</v>
+        <v>1.033517990510538</v>
       </c>
       <c r="L13">
-        <v>0.9267131686427217</v>
+        <v>1.007849956581637</v>
       </c>
       <c r="M13">
-        <v>0.9296885886784344</v>
+        <v>1.019332641493822</v>
       </c>
       <c r="N13">
-        <v>0.9755351225395101</v>
+        <v>1.006301438672378</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8889109073477127</v>
+        <v>1.00087633808741</v>
       </c>
       <c r="D14">
-        <v>1.022441804158103</v>
+        <v>1.029971375626867</v>
       </c>
       <c r="E14">
-        <v>0.9114401167041096</v>
+        <v>1.004393363393806</v>
       </c>
       <c r="F14">
-        <v>0.9147803334903873</v>
+        <v>1.015963332016516</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041250881322499</v>
+        <v>1.030702649750944</v>
       </c>
       <c r="J14">
-        <v>0.9238091817344241</v>
+        <v>1.007707146770599</v>
       </c>
       <c r="K14">
-        <v>1.036968988362309</v>
+        <v>1.033564718957481</v>
       </c>
       <c r="L14">
-        <v>0.9282700382265631</v>
+        <v>1.008085589686167</v>
       </c>
       <c r="M14">
-        <v>0.9315300045057535</v>
+        <v>1.019610144935641</v>
       </c>
       <c r="N14">
-        <v>0.976132015771302</v>
+        <v>1.006388398036531</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8902200392540401</v>
+        <v>1.001068618771538</v>
       </c>
       <c r="D15">
-        <v>1.0227328404895</v>
+        <v>1.030019942494427</v>
       </c>
       <c r="E15">
-        <v>0.9125185723435952</v>
+        <v>1.004559324639151</v>
       </c>
       <c r="F15">
-        <v>0.9160360718396383</v>
+        <v>1.016154874573577</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041384314457546</v>
+        <v>1.030714476499617</v>
       </c>
       <c r="J15">
-        <v>0.9248139986418679</v>
+        <v>1.007859491534319</v>
       </c>
       <c r="K15">
-        <v>1.037168795640664</v>
+        <v>1.033593474169123</v>
       </c>
       <c r="L15">
-        <v>0.9292206156486924</v>
+        <v>1.008230688013255</v>
       </c>
       <c r="M15">
-        <v>0.9326544885264952</v>
+        <v>1.019781007831156</v>
       </c>
       <c r="N15">
-        <v>0.976496441598137</v>
+        <v>1.006441930414943</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8976631454939731</v>
+        <v>1.002186439462589</v>
       </c>
       <c r="D16">
-        <v>1.0244052911365</v>
+        <v>1.030302353616663</v>
       </c>
       <c r="E16">
-        <v>0.9186578624550137</v>
+        <v>1.005524195158826</v>
       </c>
       <c r="F16">
-        <v>0.9231844874926132</v>
+        <v>1.01726811217439</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042142831551596</v>
+        <v>1.030782572190095</v>
       </c>
       <c r="J16">
-        <v>0.930528294373995</v>
+        <v>1.008744860875578</v>
       </c>
       <c r="K16">
-        <v>1.038312025300851</v>
+        <v>1.033760296350582</v>
       </c>
       <c r="L16">
-        <v>0.9346278314640621</v>
+        <v>1.009073967242618</v>
       </c>
       <c r="M16">
-        <v>0.9390532387963054</v>
+        <v>1.020773743598681</v>
       </c>
       <c r="N16">
-        <v>0.9785690480838488</v>
+        <v>1.006752811480127</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.902186256264365</v>
+        <v>1.002886459354645</v>
       </c>
       <c r="D17">
-        <v>1.025436170860951</v>
+        <v>1.03047926513213</v>
       </c>
       <c r="E17">
-        <v>0.9223949401055771</v>
+        <v>1.006128481540855</v>
       </c>
       <c r="F17">
-        <v>0.9275355737565899</v>
+        <v>1.017965002906894</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042603303925802</v>
+        <v>1.030824634477808</v>
       </c>
       <c r="J17">
-        <v>0.934001758177494</v>
+        <v>1.009299060270662</v>
       </c>
       <c r="K17">
-        <v>1.039012441276624</v>
+        <v>1.03386445889757</v>
       </c>
       <c r="L17">
-        <v>0.9379157632563786</v>
+        <v>1.009601840595528</v>
       </c>
       <c r="M17">
-        <v>0.9429458088389047</v>
+        <v>1.021394924408792</v>
       </c>
       <c r="N17">
-        <v>0.9798289083025664</v>
+        <v>1.006947206547493</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9047755530161957</v>
+        <v>1.003294358001694</v>
       </c>
       <c r="D18">
-        <v>1.026031176241973</v>
+        <v>1.030582368800631</v>
       </c>
       <c r="E18">
-        <v>0.9245363619122565</v>
+        <v>1.006480614034928</v>
       </c>
       <c r="F18">
-        <v>0.9300286727086583</v>
+        <v>1.018370984071417</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042866599270099</v>
+        <v>1.030848933754344</v>
       </c>
       <c r="J18">
-        <v>0.9359904123641508</v>
+        <v>1.00962189925981</v>
       </c>
       <c r="K18">
-        <v>1.039415212470334</v>
+        <v>1.03392504191299</v>
       </c>
       <c r="L18">
-        <v>0.9397985740363426</v>
+        <v>1.009909351075547</v>
       </c>
       <c r="M18">
-        <v>0.945175376645374</v>
+        <v>1.021756700625343</v>
       </c>
       <c r="N18">
-        <v>0.9805501753503587</v>
+        <v>1.007060374991582</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9056504444912969</v>
+        <v>1.003433371799731</v>
       </c>
       <c r="D19">
-        <v>1.026233014852892</v>
+        <v>1.030617509907539</v>
       </c>
       <c r="E19">
-        <v>0.9252602634127082</v>
+        <v>1.006600625364901</v>
       </c>
       <c r="F19">
-        <v>0.9308714240560211</v>
+        <v>1.018509328341289</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042955499273158</v>
+        <v>1.03085717934269</v>
       </c>
       <c r="J19">
-        <v>0.9366623857060993</v>
+        <v>1.009731908922896</v>
       </c>
       <c r="K19">
-        <v>1.039551590373675</v>
+        <v>1.033945669767917</v>
       </c>
       <c r="L19">
-        <v>0.9404348444229458</v>
+        <v>1.010014138664067</v>
       </c>
       <c r="M19">
-        <v>0.9459289070487125</v>
+        <v>1.02187996452819</v>
       </c>
       <c r="N19">
-        <v>0.9807938837643631</v>
+        <v>1.007098925543445</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9017061088896449</v>
+        <v>1.002811396520054</v>
       </c>
       <c r="D20">
-        <v>1.025326223549722</v>
+        <v>1.030460293073078</v>
       </c>
       <c r="E20">
-        <v>0.9219980115291433</v>
+        <v>1.006063682363147</v>
       </c>
       <c r="F20">
-        <v>0.927073444524079</v>
+        <v>1.01789028533368</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042554451761512</v>
+        <v>1.030820145897175</v>
       </c>
       <c r="J20">
-        <v>0.9336330083975027</v>
+        <v>1.009239643082806</v>
       </c>
       <c r="K20">
-        <v>1.038937895365932</v>
+        <v>1.033853301159925</v>
       </c>
       <c r="L20">
-        <v>0.9375666698858434</v>
+        <v>1.009545245139502</v>
       </c>
       <c r="M20">
-        <v>0.9425324625990676</v>
+        <v>1.021328334397712</v>
       </c>
       <c r="N20">
-        <v>0.9796951620465376</v>
+        <v>1.006926372479666</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8882819532427469</v>
+        <v>1.000784415477227</v>
       </c>
       <c r="D21">
-        <v>1.02230231520459</v>
+        <v>1.029948158798569</v>
       </c>
       <c r="E21">
-        <v>0.910922133704538</v>
+        <v>1.004314024210789</v>
       </c>
       <c r="F21">
-        <v>0.9141772027919192</v>
+        <v>1.01587175714504</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041186778639493</v>
+        <v>1.030696984173993</v>
       </c>
       <c r="J21">
-        <v>0.9233264606422317</v>
+        <v>1.007634311092881</v>
       </c>
       <c r="K21">
-        <v>1.03687313361877</v>
+        <v>1.033550966037106</v>
       </c>
       <c r="L21">
-        <v>0.9278134001166711</v>
+        <v>1.008016218929819</v>
       </c>
       <c r="M21">
-        <v>0.9309898709166132</v>
+        <v>1.01952845131342</v>
       </c>
       <c r="N21">
-        <v>0.9759569475954331</v>
+        <v>1.006362800296703</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8793178927245858</v>
+        <v>0.9995061231764496</v>
       </c>
       <c r="D22">
-        <v>1.020338175854147</v>
+        <v>1.029625391231303</v>
       </c>
       <c r="E22">
-        <v>0.903550117933819</v>
+        <v>1.00321078902746</v>
       </c>
       <c r="F22">
-        <v>0.9055936741038546</v>
+        <v>1.014597961883781</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040273844430842</v>
+        <v>1.030617427648238</v>
       </c>
       <c r="J22">
-        <v>0.9164488786932301</v>
+        <v>1.006621112334999</v>
       </c>
       <c r="K22">
-        <v>1.035517216994273</v>
+        <v>1.033359315945887</v>
       </c>
       <c r="L22">
-        <v>0.9213092867464997</v>
+        <v>1.007051247723971</v>
       </c>
       <c r="M22">
-        <v>0.9232999401939173</v>
+        <v>1.018391736725866</v>
       </c>
       <c r="N22">
-        <v>0.9734631124417215</v>
+        <v>1.006006449354488</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8841241273308585</v>
+        <v>1.000184142027801</v>
       </c>
       <c r="D23">
-        <v>1.021385703667793</v>
+        <v>1.029796569037974</v>
       </c>
       <c r="E23">
-        <v>0.907500306632438</v>
+        <v>1.003795939601577</v>
       </c>
       <c r="F23">
-        <v>0.9101929363476231</v>
+        <v>1.015273673593257</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040763128209566</v>
+        <v>1.030659803168534</v>
       </c>
       <c r="J23">
-        <v>0.9201358469099705</v>
+        <v>1.007158599875655</v>
       </c>
       <c r="K23">
-        <v>1.036241799034682</v>
+        <v>1.033461061127888</v>
       </c>
       <c r="L23">
-        <v>0.9247956118478917</v>
+        <v>1.007563144756059</v>
       </c>
       <c r="M23">
-        <v>0.9274210610255911</v>
+        <v>1.018994815780752</v>
       </c>
       <c r="N23">
-        <v>0.9747999012178358</v>
+        <v>1.006195550212007</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9019232172638841</v>
+        <v>1.002845315453818</v>
       </c>
       <c r="D24">
-        <v>1.025375923379303</v>
+        <v>1.030468865995459</v>
       </c>
       <c r="E24">
-        <v>0.9221774843435104</v>
+        <v>1.006092963364963</v>
       </c>
       <c r="F24">
-        <v>0.927282398592931</v>
+        <v>1.017924048544063</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042576542245498</v>
+        <v>1.030822174819623</v>
       </c>
       <c r="J24">
-        <v>0.9337997453736302</v>
+        <v>1.009266492437948</v>
       </c>
       <c r="K24">
-        <v>1.038971597225092</v>
+        <v>1.033858343396796</v>
       </c>
       <c r="L24">
-        <v>0.9377245176825799</v>
+        <v>1.009570819392019</v>
       </c>
       <c r="M24">
-        <v>0.9427193617136027</v>
+        <v>1.021358425250559</v>
       </c>
       <c r="N24">
-        <v>0.9797556379973985</v>
+        <v>1.00693578717447</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9206801843354265</v>
+        <v>1.00591740433733</v>
       </c>
       <c r="D25">
-        <v>1.029761491605717</v>
+        <v>1.031245659532406</v>
       </c>
       <c r="E25">
-        <v>0.9377224327303733</v>
+        <v>1.008745348216443</v>
       </c>
       <c r="F25">
-        <v>0.9453756316191545</v>
+        <v>1.020979978651345</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044474912994698</v>
+        <v>1.031001383079161</v>
       </c>
       <c r="J25">
-        <v>0.9482072564174457</v>
+        <v>1.011696316697362</v>
       </c>
       <c r="K25">
-        <v>1.041914720898187</v>
+        <v>1.034312570939695</v>
       </c>
       <c r="L25">
-        <v>0.951371129502986</v>
+        <v>1.011885402701242</v>
       </c>
       <c r="M25">
-        <v>0.9588855598451504</v>
+        <v>1.024079823218827</v>
       </c>
       <c r="N25">
-        <v>0.984979319541242</v>
+        <v>1.007786222720407</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008355500328646</v>
+        <v>0.9344339006548084</v>
       </c>
       <c r="D2">
-        <v>1.031862482820368</v>
+        <v>1.033087170002216</v>
       </c>
       <c r="E2">
-        <v>1.010850847508915</v>
+        <v>0.9491684424871892</v>
       </c>
       <c r="F2">
-        <v>1.02340218746966</v>
+        <v>0.9586866249143092</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031136902952628</v>
+        <v>1.045844294676111</v>
       </c>
       <c r="J2">
-        <v>1.013621809153451</v>
+        <v>0.9587696245090634</v>
       </c>
       <c r="K2">
-        <v>1.034669374833291</v>
+        <v>1.044104017957256</v>
       </c>
       <c r="L2">
-        <v>1.013719791725444</v>
+        <v>0.9613845031530891</v>
       </c>
       <c r="M2">
-        <v>1.026233731250371</v>
+        <v>0.9707531896115295</v>
       </c>
       <c r="N2">
-        <v>1.008457817609619</v>
+        <v>0.9888035549342253</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010119072505176</v>
+        <v>0.943842281070993</v>
       </c>
       <c r="D3">
-        <v>1.032308744751241</v>
+        <v>1.035411848060672</v>
       </c>
       <c r="E3">
-        <v>1.012374099252135</v>
+        <v>0.9570201536358137</v>
       </c>
       <c r="F3">
-        <v>1.02515244823389</v>
+        <v>0.9678087078758226</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031231007818702</v>
+        <v>1.046762815877969</v>
       </c>
       <c r="J3">
-        <v>1.015012910850549</v>
+        <v>0.9659904369408114</v>
       </c>
       <c r="K3">
-        <v>1.034925260177525</v>
+        <v>1.045610822617382</v>
       </c>
       <c r="L3">
-        <v>1.015045196086176</v>
+        <v>0.9682342012601555</v>
       </c>
       <c r="M3">
-        <v>1.027788293297456</v>
+        <v>0.9788707543120246</v>
       </c>
       <c r="N3">
-        <v>1.008941661028133</v>
+        <v>0.9914132866706618</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011257240933905</v>
+        <v>0.94969511020196</v>
       </c>
       <c r="D4">
-        <v>1.032596757619517</v>
+        <v>1.036877090817389</v>
       </c>
       <c r="E4">
-        <v>1.013357282464112</v>
+        <v>0.9619132682673506</v>
       </c>
       <c r="F4">
-        <v>1.026281169441578</v>
+        <v>0.9734886849976789</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031289914643131</v>
+        <v>1.047324304993457</v>
       </c>
       <c r="J4">
-        <v>1.015909912525705</v>
+        <v>0.9704794402856747</v>
       </c>
       <c r="K4">
-        <v>1.035089359344523</v>
+        <v>1.046549917419286</v>
       </c>
       <c r="L4">
-        <v>1.01589988997523</v>
+        <v>0.9724941924706849</v>
       </c>
       <c r="M4">
-        <v>1.028789963106094</v>
+        <v>0.983917971867595</v>
       </c>
       <c r="N4">
-        <v>1.009253016127193</v>
+        <v>0.9930330952727587</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011735030463957</v>
+        <v>0.9521035676989107</v>
       </c>
       <c r="D5">
-        <v>1.032717658114054</v>
+        <v>1.03748410076354</v>
       </c>
       <c r="E5">
-        <v>1.013770036635452</v>
+        <v>0.9639286891189758</v>
       </c>
       <c r="F5">
-        <v>1.02675478593049</v>
+        <v>0.975826956902511</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031314203978149</v>
+        <v>1.047552776050875</v>
       </c>
       <c r="J5">
-        <v>1.016286275059398</v>
+        <v>0.9723258489870944</v>
       </c>
       <c r="K5">
-        <v>1.035157992971316</v>
+        <v>1.046936431439151</v>
       </c>
       <c r="L5">
-        <v>1.016258513960801</v>
+        <v>0.9742467814954965</v>
       </c>
       <c r="M5">
-        <v>1.029210064905027</v>
+        <v>0.9859939815860227</v>
       </c>
       <c r="N5">
-        <v>1.009383501561096</v>
+        <v>0.9936986673757441</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011815213080607</v>
+        <v>0.9525050176704862</v>
       </c>
       <c r="D6">
-        <v>1.032737947249239</v>
+        <v>1.037585503543326</v>
       </c>
       <c r="E6">
-        <v>1.013839306486317</v>
+        <v>0.9642647323374632</v>
       </c>
       <c r="F6">
-        <v>1.026834256010785</v>
+        <v>0.976216754976864</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031318254409935</v>
+        <v>1.047590700660157</v>
       </c>
       <c r="J6">
-        <v>1.016349425153905</v>
+        <v>0.972633562670875</v>
       </c>
       <c r="K6">
-        <v>1.035169496109278</v>
+        <v>1.047000851757415</v>
       </c>
       <c r="L6">
-        <v>1.016318688442926</v>
+        <v>0.9745388809964973</v>
       </c>
       <c r="M6">
-        <v>1.029280543594021</v>
+        <v>0.9863399544624764</v>
       </c>
       <c r="N6">
-        <v>1.009405386828473</v>
+        <v>0.9938095464687898</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011263627894369</v>
+        <v>0.9497274915567205</v>
       </c>
       <c r="D7">
-        <v>1.032598373806598</v>
+        <v>1.036885236549631</v>
       </c>
       <c r="E7">
-        <v>1.013362799950615</v>
+        <v>0.9619403580515159</v>
       </c>
       <c r="F7">
-        <v>1.02628750143548</v>
+        <v>0.9735201193727989</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031290241064828</v>
+        <v>1.047327387258875</v>
       </c>
       <c r="J7">
-        <v>1.015914944377866</v>
+        <v>0.9705042684170799</v>
       </c>
       <c r="K7">
-        <v>1.035090277820369</v>
+        <v>1.046555114186241</v>
       </c>
       <c r="L7">
-        <v>1.015904684618048</v>
+        <v>0.9725177575782262</v>
       </c>
       <c r="M7">
-        <v>1.028795580437932</v>
+        <v>0.9839458876119557</v>
       </c>
       <c r="N7">
-        <v>1.009254761277954</v>
+        <v>0.9930420478241259</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008952135320147</v>
+        <v>0.9376648568278645</v>
       </c>
       <c r="D8">
-        <v>1.032013453544404</v>
+        <v>1.03388110157657</v>
       </c>
       <c r="E8">
-        <v>1.011366155602676</v>
+        <v>0.9518628523703864</v>
       </c>
       <c r="F8">
-        <v>1.023994495374074</v>
+        <v>0.9618179416530259</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031169117328695</v>
+        <v>1.046161699352455</v>
       </c>
       <c r="J8">
-        <v>1.014092595504263</v>
+        <v>0.9612498957346098</v>
       </c>
       <c r="K8">
-        <v>1.034756157838758</v>
+        <v>1.044620885657831</v>
       </c>
       <c r="L8">
-        <v>1.014168332821032</v>
+        <v>0.9637369189675306</v>
       </c>
       <c r="M8">
-        <v>1.026759988211323</v>
+        <v>0.973541216856867</v>
       </c>
       <c r="N8">
-        <v>1.008621694415907</v>
+        <v>0.9897004822107583</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004855389828109</v>
+        <v>0.914389446858216</v>
       </c>
       <c r="D9">
-        <v>1.030977056932842</v>
+        <v>1.028270773504837</v>
       </c>
       <c r="E9">
-        <v>1.00782834472848</v>
+        <v>0.9325003904845277</v>
       </c>
       <c r="F9">
-        <v>1.019924019591568</v>
+        <v>0.9392989945515015</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030940466761065</v>
+        <v>1.04384109162147</v>
       </c>
       <c r="J9">
-        <v>1.01085677761882</v>
+        <v>0.9433750530580073</v>
       </c>
       <c r="K9">
-        <v>1.034156107733131</v>
+        <v>1.040921244257258</v>
       </c>
       <c r="L9">
-        <v>1.011085646497541</v>
+        <v>0.9467925567126918</v>
       </c>
       <c r="M9">
-        <v>1.023139946812617</v>
+        <v>0.9534601756341493</v>
       </c>
       <c r="N9">
-        <v>1.007492744386687</v>
+        <v>0.9832279386884424</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002107274366038</v>
+        <v>0.897145117262461</v>
       </c>
       <c r="D10">
-        <v>1.03028234931679</v>
+        <v>1.024287921829331</v>
       </c>
       <c r="E10">
-        <v>1.005455858928028</v>
+        <v>0.9182301583700029</v>
       </c>
       <c r="F10">
-        <v>1.017189288261364</v>
+        <v>0.9226864934014547</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030777786946658</v>
+        <v>1.042090061659224</v>
       </c>
       <c r="J10">
-        <v>1.00868217432303</v>
+        <v>0.9301305211412643</v>
       </c>
       <c r="K10">
-        <v>1.033748501543117</v>
+        <v>1.038232073442908</v>
       </c>
       <c r="L10">
-        <v>1.009014259468418</v>
+        <v>0.9342513590131922</v>
       </c>
       <c r="M10">
-        <v>1.020703469636454</v>
+        <v>0.938607612856963</v>
       </c>
       <c r="N10">
-        <v>1.006730813217755</v>
+        <v>0.9784247696469299</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000913046507045</v>
+        <v>0.88916151066426</v>
       </c>
       <c r="D11">
-        <v>1.029980647278354</v>
+        <v>1.022497443474679</v>
       </c>
       <c r="E11">
-        <v>1.004425046928264</v>
+        <v>0.9116465306158137</v>
       </c>
       <c r="F11">
-        <v>1.015999900643611</v>
+        <v>0.9150206786753484</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030704910146481</v>
+        <v>1.041276423412403</v>
       </c>
       <c r="J11">
-        <v>1.00773623209878</v>
+        <v>0.9240015246420525</v>
       </c>
       <c r="K11">
-        <v>1.033570209960555</v>
+        <v>1.037007206545915</v>
       </c>
       <c r="L11">
-        <v>1.00811329144943</v>
+        <v>0.928451992922632</v>
       </c>
       <c r="M11">
-        <v>1.019642766682969</v>
+        <v>0.9317452376247888</v>
       </c>
       <c r="N11">
-        <v>1.006398619203517</v>
+        <v>0.9762017735173109</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000468793701433</v>
+        <v>0.8861068566524424</v>
       </c>
       <c r="D12">
-        <v>1.029868448838169</v>
+        <v>1.021821608689372</v>
       </c>
       <c r="E12">
-        <v>1.004041613481</v>
+        <v>0.9091315399726245</v>
       </c>
       <c r="F12">
-        <v>1.015557304230258</v>
+        <v>0.9120922783529932</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030677474103791</v>
+        <v>1.040965122885239</v>
       </c>
       <c r="J12">
-        <v>1.007384200825833</v>
+        <v>0.9216572309477136</v>
       </c>
       <c r="K12">
-        <v>1.033503714892501</v>
+        <v>1.03654235142781</v>
       </c>
       <c r="L12">
-        <v>1.007778008899381</v>
+        <v>0.9262344946828338</v>
       </c>
       <c r="M12">
-        <v>1.019247901894614</v>
+        <v>0.9291225002195184</v>
       </c>
       <c r="N12">
-        <v>1.006274880506629</v>
+        <v>0.9753515954082959</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000564117797152</v>
+        <v>0.886766339752361</v>
       </c>
       <c r="D13">
-        <v>1.029892521786199</v>
+        <v>1.021967080881664</v>
       </c>
       <c r="E13">
-        <v>1.004123886142333</v>
+        <v>0.9096743222273443</v>
       </c>
       <c r="F13">
-        <v>1.015652279394395</v>
+        <v>0.9127242783761337</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030683375814145</v>
+        <v>1.041032322516722</v>
       </c>
       <c r="J13">
-        <v>1.007459743143274</v>
+        <v>0.9221633109917871</v>
       </c>
       <c r="K13">
-        <v>1.033517990510538</v>
+        <v>1.036642526450703</v>
       </c>
       <c r="L13">
-        <v>1.007849956581637</v>
+        <v>0.9267131686427221</v>
       </c>
       <c r="M13">
-        <v>1.019332641493822</v>
+        <v>0.9296885886784348</v>
       </c>
       <c r="N13">
-        <v>1.006301438672378</v>
+        <v>0.9755351225395104</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00087633808741</v>
+        <v>0.8889109073477125</v>
       </c>
       <c r="D14">
-        <v>1.029971375626867</v>
+        <v>1.022441804158104</v>
       </c>
       <c r="E14">
-        <v>1.004393363393806</v>
+        <v>0.9114401167041092</v>
       </c>
       <c r="F14">
-        <v>1.015963332016516</v>
+        <v>0.9147803334903869</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030702649750944</v>
+        <v>1.041250881322499</v>
       </c>
       <c r="J14">
-        <v>1.007707146770599</v>
+        <v>0.9238091817344235</v>
       </c>
       <c r="K14">
-        <v>1.033564718957481</v>
+        <v>1.03696898836231</v>
       </c>
       <c r="L14">
-        <v>1.008085589686167</v>
+        <v>0.9282700382265624</v>
       </c>
       <c r="M14">
-        <v>1.019610144935641</v>
+        <v>0.9315300045057532</v>
       </c>
       <c r="N14">
-        <v>1.006388398036531</v>
+        <v>0.976132015771302</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001068618771538</v>
+        <v>0.8902200392540398</v>
       </c>
       <c r="D15">
-        <v>1.030019942494427</v>
+        <v>1.022732840489499</v>
       </c>
       <c r="E15">
-        <v>1.004559324639151</v>
+        <v>0.9125185723435945</v>
       </c>
       <c r="F15">
-        <v>1.016154874573577</v>
+        <v>0.9160360718396379</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030714476499617</v>
+        <v>1.041384314457546</v>
       </c>
       <c r="J15">
-        <v>1.007859491534319</v>
+        <v>0.9248139986418675</v>
       </c>
       <c r="K15">
-        <v>1.033593474169123</v>
+        <v>1.037168795640664</v>
       </c>
       <c r="L15">
-        <v>1.008230688013255</v>
+        <v>0.929220615648692</v>
       </c>
       <c r="M15">
-        <v>1.019781007831156</v>
+        <v>0.9326544885264948</v>
       </c>
       <c r="N15">
-        <v>1.006441930414943</v>
+        <v>0.9764964415981368</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002186439462589</v>
+        <v>0.8976631454939739</v>
       </c>
       <c r="D16">
-        <v>1.030302353616663</v>
+        <v>1.0244052911365</v>
       </c>
       <c r="E16">
-        <v>1.005524195158826</v>
+        <v>0.9186578624550142</v>
       </c>
       <c r="F16">
-        <v>1.01726811217439</v>
+        <v>0.9231844874926139</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030782572190095</v>
+        <v>1.042142831551597</v>
       </c>
       <c r="J16">
-        <v>1.008744860875578</v>
+        <v>0.9305282943739958</v>
       </c>
       <c r="K16">
-        <v>1.033760296350582</v>
+        <v>1.038312025300852</v>
       </c>
       <c r="L16">
-        <v>1.009073967242618</v>
+        <v>0.9346278314640627</v>
       </c>
       <c r="M16">
-        <v>1.020773743598681</v>
+        <v>0.9390532387963062</v>
       </c>
       <c r="N16">
-        <v>1.006752811480127</v>
+        <v>0.9785690480838493</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002886459354645</v>
+        <v>0.9021862562643658</v>
       </c>
       <c r="D17">
-        <v>1.03047926513213</v>
+        <v>1.025436170860952</v>
       </c>
       <c r="E17">
-        <v>1.006128481540855</v>
+        <v>0.9223949401055778</v>
       </c>
       <c r="F17">
-        <v>1.017965002906894</v>
+        <v>0.9275355737565906</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030824634477808</v>
+        <v>1.042603303925802</v>
       </c>
       <c r="J17">
-        <v>1.009299060270662</v>
+        <v>0.9340017581774948</v>
       </c>
       <c r="K17">
-        <v>1.03386445889757</v>
+        <v>1.039012441276624</v>
       </c>
       <c r="L17">
-        <v>1.009601840595528</v>
+        <v>0.9379157632563795</v>
       </c>
       <c r="M17">
-        <v>1.021394924408792</v>
+        <v>0.9429458088389053</v>
       </c>
       <c r="N17">
-        <v>1.006947206547493</v>
+        <v>0.9798289083025669</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003294358001694</v>
+        <v>0.9047755530161964</v>
       </c>
       <c r="D18">
-        <v>1.030582368800631</v>
+        <v>1.026031176241974</v>
       </c>
       <c r="E18">
-        <v>1.006480614034928</v>
+        <v>0.9245363619122566</v>
       </c>
       <c r="F18">
-        <v>1.018370984071417</v>
+        <v>0.930028672708659</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030848933754344</v>
+        <v>1.0428665992701</v>
       </c>
       <c r="J18">
-        <v>1.00962189925981</v>
+        <v>0.9359904123641511</v>
       </c>
       <c r="K18">
-        <v>1.03392504191299</v>
+        <v>1.039415212470334</v>
       </c>
       <c r="L18">
-        <v>1.009909351075547</v>
+        <v>0.9397985740363428</v>
       </c>
       <c r="M18">
-        <v>1.021756700625343</v>
+        <v>0.9451753766453747</v>
       </c>
       <c r="N18">
-        <v>1.007060374991582</v>
+        <v>0.9805501753503588</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003433371799731</v>
+        <v>0.9056504444912949</v>
       </c>
       <c r="D19">
-        <v>1.030617509907539</v>
+        <v>1.026233014852893</v>
       </c>
       <c r="E19">
-        <v>1.006600625364901</v>
+        <v>0.9252602634127061</v>
       </c>
       <c r="F19">
-        <v>1.018509328341289</v>
+        <v>0.9308714240560199</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03085717934269</v>
+        <v>1.042955499273158</v>
       </c>
       <c r="J19">
-        <v>1.009731908922896</v>
+        <v>0.9366623857060974</v>
       </c>
       <c r="K19">
-        <v>1.033945669767917</v>
+        <v>1.039551590373675</v>
       </c>
       <c r="L19">
-        <v>1.010014138664067</v>
+        <v>0.9404348444229438</v>
       </c>
       <c r="M19">
-        <v>1.02187996452819</v>
+        <v>0.9459289070487114</v>
       </c>
       <c r="N19">
-        <v>1.007098925543445</v>
+        <v>0.9807938837643624</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002811396520054</v>
+        <v>0.901706108889645</v>
       </c>
       <c r="D20">
-        <v>1.030460293073078</v>
+        <v>1.025326223549722</v>
       </c>
       <c r="E20">
-        <v>1.006063682363147</v>
+        <v>0.9219980115291434</v>
       </c>
       <c r="F20">
-        <v>1.01789028533368</v>
+        <v>0.9270734445240796</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030820145897175</v>
+        <v>1.042554451761512</v>
       </c>
       <c r="J20">
-        <v>1.009239643082806</v>
+        <v>0.9336330083975029</v>
       </c>
       <c r="K20">
-        <v>1.033853301159925</v>
+        <v>1.038937895365932</v>
       </c>
       <c r="L20">
-        <v>1.009545245139502</v>
+        <v>0.9375666698858434</v>
       </c>
       <c r="M20">
-        <v>1.021328334397712</v>
+        <v>0.9425324625990682</v>
       </c>
       <c r="N20">
-        <v>1.006926372479666</v>
+        <v>0.9796951620465375</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000784415477227</v>
+        <v>0.8882819532427456</v>
       </c>
       <c r="D21">
-        <v>1.029948158798569</v>
+        <v>1.02230231520459</v>
       </c>
       <c r="E21">
-        <v>1.004314024210789</v>
+        <v>0.9109221337045366</v>
       </c>
       <c r="F21">
-        <v>1.01587175714504</v>
+        <v>0.9141772027919178</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030696984173993</v>
+        <v>1.041186778639493</v>
       </c>
       <c r="J21">
-        <v>1.007634311092881</v>
+        <v>0.9233264606422302</v>
       </c>
       <c r="K21">
-        <v>1.033550966037106</v>
+        <v>1.03687313361877</v>
       </c>
       <c r="L21">
-        <v>1.008016218929819</v>
+        <v>0.9278134001166697</v>
       </c>
       <c r="M21">
-        <v>1.01952845131342</v>
+        <v>0.9309898709166121</v>
       </c>
       <c r="N21">
-        <v>1.006362800296703</v>
+        <v>0.9759569475954326</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9995061231764496</v>
+        <v>0.8793178927245859</v>
       </c>
       <c r="D22">
-        <v>1.029625391231303</v>
+        <v>1.020338175854147</v>
       </c>
       <c r="E22">
-        <v>1.00321078902746</v>
+        <v>0.903550117933819</v>
       </c>
       <c r="F22">
-        <v>1.014597961883781</v>
+        <v>0.9055936741038548</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030617427648238</v>
+        <v>1.040273844430842</v>
       </c>
       <c r="J22">
-        <v>1.006621112334999</v>
+        <v>0.91644887869323</v>
       </c>
       <c r="K22">
-        <v>1.033359315945887</v>
+        <v>1.035517216994273</v>
       </c>
       <c r="L22">
-        <v>1.007051247723971</v>
+        <v>0.9213092867464997</v>
       </c>
       <c r="M22">
-        <v>1.018391736725866</v>
+        <v>0.9232999401939176</v>
       </c>
       <c r="N22">
-        <v>1.006006449354488</v>
+        <v>0.9734631124417215</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.000184142027801</v>
+        <v>0.8841241273308593</v>
       </c>
       <c r="D23">
-        <v>1.029796569037974</v>
+        <v>1.021385703667794</v>
       </c>
       <c r="E23">
-        <v>1.003795939601577</v>
+        <v>0.907500306632439</v>
       </c>
       <c r="F23">
-        <v>1.015273673593257</v>
+        <v>0.9101929363476237</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030659803168534</v>
+        <v>1.040763128209567</v>
       </c>
       <c r="J23">
-        <v>1.007158599875655</v>
+        <v>0.9201358469099713</v>
       </c>
       <c r="K23">
-        <v>1.033461061127888</v>
+        <v>1.036241799034683</v>
       </c>
       <c r="L23">
-        <v>1.007563144756059</v>
+        <v>0.9247956118478928</v>
       </c>
       <c r="M23">
-        <v>1.018994815780752</v>
+        <v>0.9274210610255917</v>
       </c>
       <c r="N23">
-        <v>1.006195550212007</v>
+        <v>0.9747999012178362</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002845315453818</v>
+        <v>0.9019232172638835</v>
       </c>
       <c r="D24">
-        <v>1.030468865995459</v>
+        <v>1.025375923379303</v>
       </c>
       <c r="E24">
-        <v>1.006092963364963</v>
+        <v>0.9221774843435093</v>
       </c>
       <c r="F24">
-        <v>1.017924048544063</v>
+        <v>0.9272823985929307</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030822174819623</v>
+        <v>1.042576542245498</v>
       </c>
       <c r="J24">
-        <v>1.009266492437948</v>
+        <v>0.9337997453736294</v>
       </c>
       <c r="K24">
-        <v>1.033858343396796</v>
+        <v>1.038971597225092</v>
       </c>
       <c r="L24">
-        <v>1.009570819392019</v>
+        <v>0.937724517682579</v>
       </c>
       <c r="M24">
-        <v>1.021358425250559</v>
+        <v>0.9427193617136025</v>
       </c>
       <c r="N24">
-        <v>1.00693578717447</v>
+        <v>0.9797556379973983</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00591740433733</v>
+        <v>0.9206801843354249</v>
       </c>
       <c r="D25">
-        <v>1.031245659532406</v>
+        <v>1.029761491605717</v>
       </c>
       <c r="E25">
-        <v>1.008745348216443</v>
+        <v>0.9377224327303716</v>
       </c>
       <c r="F25">
-        <v>1.020979978651345</v>
+        <v>0.9453756316191534</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031001383079161</v>
+        <v>1.044474912994698</v>
       </c>
       <c r="J25">
-        <v>1.011696316697362</v>
+        <v>0.9482072564174439</v>
       </c>
       <c r="K25">
-        <v>1.034312570939695</v>
+        <v>1.041914720898187</v>
       </c>
       <c r="L25">
-        <v>1.011885402701242</v>
+        <v>0.9513711295029841</v>
       </c>
       <c r="M25">
-        <v>1.024079823218827</v>
+        <v>0.958885559845149</v>
       </c>
       <c r="N25">
-        <v>1.007786222720407</v>
+        <v>0.9849793195412414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9344339006548084</v>
+        <v>0.9778861566533181</v>
       </c>
       <c r="D2">
-        <v>1.033087170002216</v>
+        <v>1.035921511479893</v>
       </c>
       <c r="E2">
-        <v>0.9491684424871892</v>
+        <v>0.9983555790931414</v>
       </c>
       <c r="F2">
-        <v>0.9586866249143092</v>
+        <v>1.013954389302422</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045844294676111</v>
+        <v>1.049341345073283</v>
       </c>
       <c r="J2">
-        <v>0.9587696245090634</v>
+        <v>1.000749024357722</v>
       </c>
       <c r="K2">
-        <v>1.044104017957256</v>
+        <v>1.046902097421871</v>
       </c>
       <c r="L2">
-        <v>0.9613845031530891</v>
+        <v>1.009837870950778</v>
       </c>
       <c r="M2">
-        <v>0.9707531896115295</v>
+        <v>1.025222681102027</v>
       </c>
       <c r="N2">
-        <v>0.9888035549342253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.002397554914293</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028534349500118</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044234114818081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.943842281070993</v>
+        <v>0.9848618201516655</v>
       </c>
       <c r="D3">
-        <v>1.035411848060672</v>
+        <v>1.037443253306958</v>
       </c>
       <c r="E3">
-        <v>0.9570201536358137</v>
+        <v>1.003895072538324</v>
       </c>
       <c r="F3">
-        <v>0.9678087078758226</v>
+        <v>1.0187978707965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046762815877969</v>
+        <v>1.049757917110347</v>
       </c>
       <c r="J3">
-        <v>0.9659904369408114</v>
+        <v>1.005773850349751</v>
       </c>
       <c r="K3">
-        <v>1.045610822617382</v>
+        <v>1.047618448527256</v>
       </c>
       <c r="L3">
-        <v>0.9682342012601555</v>
+        <v>1.014478356604756</v>
       </c>
       <c r="M3">
-        <v>0.9788707543120246</v>
+        <v>1.029195748992837</v>
       </c>
       <c r="N3">
-        <v>0.9914132866706618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.004291048588744</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031678812570191</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044737980115696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.94969511020196</v>
+        <v>0.9892459788117051</v>
       </c>
       <c r="D4">
-        <v>1.036877090817389</v>
+        <v>1.03841334599067</v>
       </c>
       <c r="E4">
-        <v>0.9619132682673506</v>
+        <v>1.007383118555966</v>
       </c>
       <c r="F4">
-        <v>0.9734886849976789</v>
+        <v>1.021850159488915</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047324304993457</v>
+        <v>1.050009815809293</v>
       </c>
       <c r="J4">
-        <v>0.9704794402856747</v>
+        <v>1.008928832161096</v>
       </c>
       <c r="K4">
-        <v>1.046549917419286</v>
+        <v>1.048069248930106</v>
       </c>
       <c r="L4">
-        <v>0.9724941924706849</v>
+        <v>1.017393245121899</v>
       </c>
       <c r="M4">
-        <v>0.983917971867595</v>
+        <v>1.031691835168016</v>
       </c>
       <c r="N4">
-        <v>0.9930330952727587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.005476861905055</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.033654319201321</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045057616824037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9521035676989107</v>
+        <v>0.9910600008281627</v>
       </c>
       <c r="D5">
-        <v>1.03748410076354</v>
+        <v>1.038823020179318</v>
       </c>
       <c r="E5">
-        <v>0.9639286891189758</v>
+        <v>1.00882775906411</v>
       </c>
       <c r="F5">
-        <v>0.975826956902511</v>
+        <v>1.023114371613169</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047552776050875</v>
+        <v>1.050113123227227</v>
       </c>
       <c r="J5">
-        <v>0.9723258489870944</v>
+        <v>1.010233518511142</v>
       </c>
       <c r="K5">
-        <v>1.046936431439151</v>
+        <v>1.048260984905129</v>
       </c>
       <c r="L5">
-        <v>0.9742467814954965</v>
+        <v>1.018598838072065</v>
       </c>
       <c r="M5">
-        <v>0.9859939815860227</v>
+        <v>1.032723793150377</v>
       </c>
       <c r="N5">
-        <v>0.9936986673757441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.005966699864396</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034471052134214</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045200307739784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9525050176704862</v>
+        <v>0.9913632575641145</v>
       </c>
       <c r="D6">
-        <v>1.037585503543326</v>
+        <v>1.038898005709918</v>
       </c>
       <c r="E6">
-        <v>0.9642647323374632</v>
+        <v>1.009069296802379</v>
       </c>
       <c r="F6">
-        <v>0.976216754976864</v>
+        <v>1.023325165937459</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047590700660157</v>
+        <v>1.050132124560968</v>
       </c>
       <c r="J6">
-        <v>0.972633562670875</v>
+        <v>1.010451667415725</v>
       </c>
       <c r="K6">
-        <v>1.047000851757415</v>
+        <v>1.048299334444479</v>
       </c>
       <c r="L6">
-        <v>0.9745388809964973</v>
+        <v>1.018800344187127</v>
       </c>
       <c r="M6">
-        <v>0.9863399544624764</v>
+        <v>1.032895684454604</v>
       </c>
       <c r="N6">
-        <v>0.9938095464687898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.00604885297762</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034607093713915</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04523610749146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9497274915567205</v>
+        <v>0.9892712731161725</v>
       </c>
       <c r="D7">
-        <v>1.036885236549631</v>
+        <v>1.038435891528847</v>
       </c>
       <c r="E7">
-        <v>0.9619403580515159</v>
+        <v>1.007403114215662</v>
       </c>
       <c r="F7">
-        <v>0.9735201193727989</v>
+        <v>1.021865976633523</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047327387258875</v>
+        <v>1.050016216015959</v>
       </c>
       <c r="J7">
-        <v>0.9705042684170799</v>
+        <v>1.008947267399825</v>
       </c>
       <c r="K7">
-        <v>1.046555114186241</v>
+        <v>1.048088693176736</v>
       </c>
       <c r="L7">
-        <v>0.9725177575782262</v>
+        <v>1.017410032089397</v>
       </c>
       <c r="M7">
-        <v>0.9839458876119557</v>
+        <v>1.031704556015444</v>
       </c>
       <c r="N7">
-        <v>0.9930420478241259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.005484598203263</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.033664386995905</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045091334308293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9376648568278645</v>
+        <v>0.9802726425823918</v>
       </c>
       <c r="D8">
-        <v>1.03388110157657</v>
+        <v>1.036459506335937</v>
       </c>
       <c r="E8">
-        <v>0.9518628523703864</v>
+        <v>1.000249058240754</v>
       </c>
       <c r="F8">
-        <v>0.9618179416530259</v>
+        <v>1.015607088638764</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046161699352455</v>
+        <v>1.049491627643379</v>
       </c>
       <c r="J8">
-        <v>0.9612498957346098</v>
+        <v>1.002468991441336</v>
       </c>
       <c r="K8">
-        <v>1.044620885657831</v>
+        <v>1.047167259396635</v>
       </c>
       <c r="L8">
-        <v>0.9637369189675306</v>
+        <v>1.011425656930662</v>
       </c>
       <c r="M8">
-        <v>0.973541216856867</v>
+        <v>1.02657972185215</v>
       </c>
       <c r="N8">
-        <v>0.9897004822107583</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.003047382121746</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029608373657584</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044444334311682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.914389446858216</v>
+        <v>0.9633403688972286</v>
       </c>
       <c r="D9">
-        <v>1.028270773504837</v>
+        <v>1.032835402642318</v>
       </c>
       <c r="E9">
-        <v>0.9325003904845277</v>
+        <v>0.9868470117738151</v>
       </c>
       <c r="F9">
-        <v>0.9392989945515015</v>
+        <v>1.003908159906995</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04384109162147</v>
+        <v>1.048421363361823</v>
       </c>
       <c r="J9">
-        <v>0.9433750530580073</v>
+        <v>0.9902575710217824</v>
       </c>
       <c r="K9">
-        <v>1.040921244257258</v>
+        <v>1.045417300403309</v>
       </c>
       <c r="L9">
-        <v>0.9467925567126918</v>
+        <v>1.000157153672998</v>
       </c>
       <c r="M9">
-        <v>0.9534601756341493</v>
+        <v>1.01693814658262</v>
       </c>
       <c r="N9">
-        <v>0.9832279386884424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9984288763379376</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.021977553209349</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043203880378724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.897145117262461</v>
+        <v>0.9514252374999286</v>
       </c>
       <c r="D10">
-        <v>1.024287921829331</v>
+        <v>1.030359779516309</v>
       </c>
       <c r="E10">
-        <v>0.9182301583700029</v>
+        <v>0.9775109417256177</v>
       </c>
       <c r="F10">
-        <v>0.9226864934014547</v>
+        <v>0.9958270912387642</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042090061659224</v>
+        <v>1.047637406454242</v>
       </c>
       <c r="J10">
-        <v>0.9301305211412643</v>
+        <v>0.981708047605507</v>
       </c>
       <c r="K10">
-        <v>1.038232073442908</v>
+        <v>1.044201692814676</v>
       </c>
       <c r="L10">
-        <v>0.9342513590131922</v>
+        <v>0.9922984720387688</v>
       </c>
       <c r="M10">
-        <v>0.938607612856963</v>
+        <v>1.010272099814014</v>
       </c>
       <c r="N10">
-        <v>0.9784247696469299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9952042735382198</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.016754494076094</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.042361055012236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.88916151066426</v>
+        <v>0.9479037072538828</v>
       </c>
       <c r="D11">
-        <v>1.022497443474679</v>
+        <v>1.029438804350738</v>
       </c>
       <c r="E11">
-        <v>0.9116465306158137</v>
+        <v>0.9751431308385959</v>
       </c>
       <c r="F11">
-        <v>0.9150206786753484</v>
+        <v>0.9941809900168526</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041276423412403</v>
+        <v>1.047502527053366</v>
       </c>
       <c r="J11">
-        <v>0.9240015246420525</v>
+        <v>0.9796166750963777</v>
       </c>
       <c r="K11">
-        <v>1.037007206545915</v>
+        <v>1.043826112127705</v>
       </c>
       <c r="L11">
-        <v>0.928451992922632</v>
+        <v>0.9905495452130917</v>
       </c>
       <c r="M11">
-        <v>0.9317452376247888</v>
+        <v>1.009213485054884</v>
       </c>
       <c r="N11">
-        <v>0.9762017735173109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.994604016809542</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.01636433425998</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042128044766161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8861068566524424</v>
+        <v>0.9473389487183969</v>
       </c>
       <c r="D12">
-        <v>1.021821608689372</v>
+        <v>1.029146321879713</v>
       </c>
       <c r="E12">
-        <v>0.9091315399726245</v>
+        <v>0.9749965272041494</v>
       </c>
       <c r="F12">
-        <v>0.9120922783529932</v>
+        <v>0.994351190822107</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040965122885239</v>
+        <v>1.047540803579285</v>
       </c>
       <c r="J12">
-        <v>0.9216572309477136</v>
+        <v>0.9795522265742651</v>
       </c>
       <c r="K12">
-        <v>1.03654235142781</v>
+        <v>1.043735646066253</v>
       </c>
       <c r="L12">
-        <v>0.9262344946828338</v>
+        <v>0.9906189605913301</v>
       </c>
       <c r="M12">
-        <v>0.9291225002195184</v>
+        <v>1.009587419230479</v>
       </c>
       <c r="N12">
-        <v>0.9753515954082959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9947422721199733</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.0169940509683</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042064083472462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.886766339752361</v>
+        <v>0.9490167732643158</v>
       </c>
       <c r="D13">
-        <v>1.021967080881664</v>
+        <v>1.029334186623688</v>
       </c>
       <c r="E13">
-        <v>0.9096743222273443</v>
+        <v>0.9765502818334999</v>
       </c>
       <c r="F13">
-        <v>0.9127242783761337</v>
+        <v>0.9959371872841177</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041032322516722</v>
+        <v>1.047722401396468</v>
       </c>
       <c r="J13">
-        <v>0.9221633109917871</v>
+        <v>0.9810461355845461</v>
       </c>
       <c r="K13">
-        <v>1.036642526450703</v>
+        <v>1.043877949566023</v>
       </c>
       <c r="L13">
-        <v>0.9267131686427221</v>
+        <v>0.992095368993254</v>
       </c>
       <c r="M13">
-        <v>0.9296885886784348</v>
+        <v>1.011098343415896</v>
       </c>
       <c r="N13">
-        <v>0.9755351225395104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.995457524802736</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.01847076022111</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042162225864901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8889109073477125</v>
+        <v>0.951186379913707</v>
       </c>
       <c r="D14">
-        <v>1.022441804158104</v>
+        <v>1.029685958923298</v>
       </c>
       <c r="E14">
-        <v>0.9114401167041092</v>
+        <v>0.9783896708365625</v>
       </c>
       <c r="F14">
-        <v>0.9147803334903869</v>
+        <v>0.997672121856488</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041250881322499</v>
+        <v>1.047913217760024</v>
       </c>
       <c r="J14">
-        <v>0.9238091817344235</v>
+        <v>0.982779744748154</v>
       </c>
       <c r="K14">
-        <v>1.03696898836231</v>
+        <v>1.044085210384349</v>
       </c>
       <c r="L14">
-        <v>0.9282700382265624</v>
+        <v>0.9937484881244901</v>
       </c>
       <c r="M14">
-        <v>0.9315300045057532</v>
+        <v>1.012655099170281</v>
       </c>
       <c r="N14">
-        <v>0.976132015771302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9962120165874908</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.019877420965692</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042310174521865</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8902200392540398</v>
+        <v>0.9522044992986983</v>
       </c>
       <c r="D15">
-        <v>1.022732840489499</v>
+        <v>1.029880752633466</v>
       </c>
       <c r="E15">
-        <v>0.9125185723435945</v>
+        <v>0.9792139669657131</v>
       </c>
       <c r="F15">
-        <v>0.9160360718396379</v>
+        <v>0.9984154415264269</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041384314457546</v>
+        <v>1.047992609165151</v>
       </c>
       <c r="J15">
-        <v>0.9248139986418675</v>
+        <v>0.9835461767214682</v>
       </c>
       <c r="K15">
-        <v>1.037168795640664</v>
+        <v>1.044191411668715</v>
       </c>
       <c r="L15">
-        <v>0.929220615648692</v>
+        <v>0.9944646442715744</v>
       </c>
       <c r="M15">
-        <v>0.9326544885264948</v>
+        <v>1.01329520811622</v>
       </c>
       <c r="N15">
-        <v>0.9764964415981368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9965226232007708</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.020421416667253</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042391077298817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8976631454939739</v>
+        <v>0.956933099575159</v>
       </c>
       <c r="D16">
-        <v>1.0244052911365</v>
+        <v>1.030890402657733</v>
       </c>
       <c r="E16">
-        <v>0.9186578624550142</v>
+        <v>0.9828671623023157</v>
       </c>
       <c r="F16">
-        <v>0.9231844874926139</v>
+        <v>1.00155483704659</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042142831551597</v>
+        <v>1.048300963917861</v>
       </c>
       <c r="J16">
-        <v>0.9305282943739958</v>
+        <v>0.9868834774850395</v>
       </c>
       <c r="K16">
-        <v>1.038312025300852</v>
+        <v>1.044688346910158</v>
       </c>
       <c r="L16">
-        <v>0.9346278314640627</v>
+        <v>0.997515191979952</v>
       </c>
       <c r="M16">
-        <v>0.9390532387963062</v>
+        <v>1.015859479680405</v>
       </c>
       <c r="N16">
-        <v>0.9785690480838493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9977464958340458</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.02240893008169</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042745565482887</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9021862562643658</v>
+        <v>0.9594201619542098</v>
       </c>
       <c r="D17">
-        <v>1.025436170860952</v>
+        <v>1.031483620014847</v>
       </c>
       <c r="E17">
-        <v>0.9223949401055778</v>
+        <v>0.9847045117514546</v>
       </c>
       <c r="F17">
-        <v>0.9275355737565906</v>
+        <v>1.003048056537851</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042603303925802</v>
+        <v>1.048435357688168</v>
       </c>
       <c r="J17">
-        <v>0.9340017581774948</v>
+        <v>0.9885323144185422</v>
       </c>
       <c r="K17">
-        <v>1.039012441276624</v>
+        <v>1.044961262775448</v>
       </c>
       <c r="L17">
-        <v>0.9379157632563795</v>
+        <v>0.9989861487908265</v>
       </c>
       <c r="M17">
-        <v>0.9429458088389053</v>
+        <v>1.017002852521301</v>
       </c>
       <c r="N17">
-        <v>0.9798289083025669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9982888809400141</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.023181832752516</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042941093397138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9047755530161964</v>
+        <v>0.960206325983727</v>
       </c>
       <c r="D18">
-        <v>1.026031176241974</v>
+        <v>1.031763451324918</v>
       </c>
       <c r="E18">
-        <v>0.9245363619122566</v>
+        <v>0.9851257271515951</v>
       </c>
       <c r="F18">
-        <v>0.930028672708659</v>
+        <v>1.003217990802913</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0428665992701</v>
+        <v>1.048428713636265</v>
       </c>
       <c r="J18">
-        <v>0.9359904123641511</v>
+        <v>0.9888618195843593</v>
       </c>
       <c r="K18">
-        <v>1.039415212470334</v>
+        <v>1.045055540603025</v>
       </c>
       <c r="L18">
-        <v>0.9397985740363428</v>
+        <v>0.9992062462442585</v>
       </c>
       <c r="M18">
-        <v>0.9451753766453747</v>
+        <v>1.016981407765885</v>
       </c>
       <c r="N18">
-        <v>0.9805501753503588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9982869934842726</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.022923413688988</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042996217196724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9056504444912949</v>
+        <v>0.9594838796831755</v>
       </c>
       <c r="D19">
-        <v>1.026233014852893</v>
+        <v>1.031785225358181</v>
       </c>
       <c r="E19">
-        <v>0.9252602634127061</v>
+        <v>0.9842881312227446</v>
       </c>
       <c r="F19">
-        <v>0.9308714240560199</v>
+        <v>1.002202681202134</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042955499273158</v>
+        <v>1.048306519892145</v>
       </c>
       <c r="J19">
-        <v>0.9366623857060974</v>
+        <v>0.988025853059722</v>
       </c>
       <c r="K19">
-        <v>1.039551590373675</v>
+        <v>1.045015241134726</v>
       </c>
       <c r="L19">
-        <v>0.9404348444229438</v>
+        <v>0.9983176643403204</v>
       </c>
       <c r="M19">
-        <v>0.9459289070487114</v>
+        <v>1.015919161585578</v>
       </c>
       <c r="N19">
-        <v>0.9807938837643624</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9978190358887485</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.021751886298449</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042974062687875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.901706108889645</v>
+        <v>0.954551973490757</v>
       </c>
       <c r="D20">
-        <v>1.025326223549722</v>
+        <v>1.031039261113296</v>
       </c>
       <c r="E20">
-        <v>0.9219980115291434</v>
+        <v>0.9799581468155034</v>
       </c>
       <c r="F20">
-        <v>0.9270734445240796</v>
+        <v>0.9979404204120884</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042554451761512</v>
+        <v>1.047856005119073</v>
       </c>
       <c r="J20">
-        <v>0.9336330083975029</v>
+        <v>0.9839546854129116</v>
       </c>
       <c r="K20">
-        <v>1.038937895365932</v>
+        <v>1.044557430155655</v>
       </c>
       <c r="L20">
-        <v>0.9375666698858434</v>
+        <v>0.9943628067604495</v>
       </c>
       <c r="M20">
-        <v>0.9425324625990682</v>
+        <v>1.012019581978835</v>
       </c>
       <c r="N20">
-        <v>0.9796951620465375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9960557149540278</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.01812664858854</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042654255198797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1440,105 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8882819532427456</v>
+        <v>0.9451134887668342</v>
       </c>
       <c r="D21">
-        <v>1.02230231520459</v>
+        <v>1.02914907588562</v>
       </c>
       <c r="E21">
-        <v>0.9109221337045366</v>
+        <v>0.9725115805553929</v>
       </c>
       <c r="F21">
-        <v>0.9141772027919178</v>
+        <v>0.9914253642594286</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041186778639493</v>
+        <v>1.047199709411989</v>
       </c>
       <c r="J21">
-        <v>0.9233264606422302</v>
+        <v>0.9770997846962732</v>
       </c>
       <c r="K21">
-        <v>1.03687313361877</v>
+        <v>1.043598482007554</v>
       </c>
       <c r="L21">
-        <v>0.9278134001166697</v>
+        <v>0.9880331388634225</v>
       </c>
       <c r="M21">
-        <v>0.9309898709166121</v>
+        <v>1.006571027274359</v>
       </c>
       <c r="N21">
-        <v>0.9759569475954326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9934332953373858</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.013772404674194</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041979436466947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8793178927245859</v>
+        <v>0.9390617742952585</v>
       </c>
       <c r="D22">
-        <v>1.020338175854147</v>
+        <v>1.027935626464354</v>
       </c>
       <c r="E22">
-        <v>0.903550117933819</v>
+        <v>0.9677748680573623</v>
       </c>
       <c r="F22">
-        <v>0.9055936741038548</v>
+        <v>0.987314856569435</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040273844430842</v>
+        <v>1.046774544443966</v>
       </c>
       <c r="J22">
-        <v>0.91644887869323</v>
+        <v>0.9727308538890842</v>
       </c>
       <c r="K22">
-        <v>1.035517216994273</v>
+        <v>1.042973269343814</v>
       </c>
       <c r="L22">
-        <v>0.9213092867464997</v>
+        <v>0.9840129311975486</v>
       </c>
       <c r="M22">
-        <v>0.9232999401939176</v>
+        <v>1.0031418678145</v>
       </c>
       <c r="N22">
-        <v>0.9734631124417215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9917695689738045</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.01105834345955</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041524008778052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8841241273308593</v>
+        <v>0.942291608908517</v>
       </c>
       <c r="D23">
-        <v>1.021385703667794</v>
+        <v>1.028567091319084</v>
       </c>
       <c r="E23">
-        <v>0.907500306632439</v>
+        <v>0.970301720739681</v>
       </c>
       <c r="F23">
-        <v>0.9101929363476237</v>
+        <v>0.9895093572238003</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040763128209567</v>
+        <v>1.046998950454287</v>
       </c>
       <c r="J23">
-        <v>0.9201358469099713</v>
+        <v>0.9750622825576021</v>
       </c>
       <c r="K23">
-        <v>1.036241799034683</v>
+        <v>1.043292887498048</v>
       </c>
       <c r="L23">
-        <v>0.9247956118478928</v>
+        <v>0.986158321424295</v>
       </c>
       <c r="M23">
-        <v>0.9274210610255917</v>
+        <v>1.004973835211834</v>
       </c>
       <c r="N23">
-        <v>0.9747999012178362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9926565713152929</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.012508283760022</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041740448851584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9019232172638835</v>
+        <v>0.9545294727192799</v>
       </c>
       <c r="D24">
-        <v>1.025375923379303</v>
+        <v>1.031033356095013</v>
       </c>
       <c r="E24">
-        <v>0.9221774843435093</v>
+        <v>0.9799048787142043</v>
       </c>
       <c r="F24">
-        <v>0.9272823985929307</v>
+        <v>0.9978579613157997</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042576542245498</v>
+        <v>1.047839835956133</v>
       </c>
       <c r="J24">
-        <v>0.9337997453736294</v>
+        <v>0.9838976553324181</v>
       </c>
       <c r="K24">
-        <v>1.038971597225092</v>
+        <v>1.044536560728879</v>
       </c>
       <c r="L24">
-        <v>0.937724517682579</v>
+        <v>0.9942943230001652</v>
       </c>
       <c r="M24">
-        <v>0.9427193617136025</v>
+        <v>1.011922798266558</v>
       </c>
       <c r="N24">
-        <v>0.9797556379973983</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9960163788385865</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.018008123975804</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042612341751192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9206801843354249</v>
+        <v>0.9678588398843532</v>
       </c>
       <c r="D25">
-        <v>1.029761491605717</v>
+        <v>1.033811754245503</v>
       </c>
       <c r="E25">
-        <v>0.9377224327303716</v>
+        <v>0.9904152793594914</v>
       </c>
       <c r="F25">
-        <v>0.9453756316191534</v>
+        <v>1.007016554069928</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044474912994698</v>
+        <v>1.048721604720982</v>
       </c>
       <c r="J25">
-        <v>0.9482072564174439</v>
+        <v>0.9935185030746051</v>
       </c>
       <c r="K25">
-        <v>1.041914720898187</v>
+        <v>1.045906918854242</v>
       </c>
       <c r="L25">
-        <v>0.9513711295029841</v>
+        <v>1.003164230613266</v>
       </c>
       <c r="M25">
-        <v>0.958885559845149</v>
+        <v>1.019506914867548</v>
       </c>
       <c r="N25">
-        <v>0.9849793195412414</v>
+        <v>0.9996660479509244</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024010612074912</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043578406715411</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_30/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9778861566533181</v>
+        <v>0.9803964731059921</v>
       </c>
       <c r="D2">
-        <v>1.035921511479893</v>
+        <v>1.033129427013395</v>
       </c>
       <c r="E2">
-        <v>0.9983555790931414</v>
+        <v>1.000297237281096</v>
       </c>
       <c r="F2">
-        <v>1.013954389302422</v>
+        <v>1.015361437817478</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049341345073283</v>
+        <v>1.048333337074886</v>
       </c>
       <c r="J2">
-        <v>1.000749024357722</v>
+        <v>1.003179760669993</v>
       </c>
       <c r="K2">
-        <v>1.046902097421871</v>
+        <v>1.044145732513865</v>
       </c>
       <c r="L2">
-        <v>1.009837870950778</v>
+        <v>1.01175243266889</v>
       </c>
       <c r="M2">
-        <v>1.025222681102027</v>
+        <v>1.026610832597698</v>
       </c>
       <c r="N2">
-        <v>1.002397554914293</v>
+        <v>1.00659860768959</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028534349500118</v>
+        <v>1.029632996105904</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044234114818081</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042293865824948</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02380625057029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9848618201516655</v>
+        <v>0.987057556092244</v>
       </c>
       <c r="D3">
-        <v>1.037443253306958</v>
+        <v>1.03453126748818</v>
       </c>
       <c r="E3">
-        <v>1.003895072538324</v>
+        <v>1.005589920121527</v>
       </c>
       <c r="F3">
-        <v>1.0187978707965</v>
+        <v>1.020012583791294</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049757917110347</v>
+        <v>1.048690730627976</v>
       </c>
       <c r="J3">
-        <v>1.005773850349751</v>
+        <v>1.007907373097964</v>
       </c>
       <c r="K3">
-        <v>1.047618448527256</v>
+        <v>1.044740585908176</v>
       </c>
       <c r="L3">
-        <v>1.014478356604756</v>
+        <v>1.016151773047104</v>
       </c>
       <c r="M3">
-        <v>1.029195748992837</v>
+        <v>1.03039564655941</v>
       </c>
       <c r="N3">
-        <v>1.004291048588744</v>
+        <v>1.008029449657287</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031678812570191</v>
+        <v>1.032628462209292</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044737980115696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042711550552972</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023871888398597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9892459788117051</v>
+        <v>0.9912489693122376</v>
       </c>
       <c r="D4">
-        <v>1.03841334599067</v>
+        <v>1.035425841877015</v>
       </c>
       <c r="E4">
-        <v>1.007383118555966</v>
+        <v>1.008926441113413</v>
       </c>
       <c r="F4">
-        <v>1.021850159488915</v>
+        <v>1.022946803975961</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050009815809293</v>
+        <v>1.048905418640504</v>
       </c>
       <c r="J4">
-        <v>1.008928832161096</v>
+        <v>1.010879207620857</v>
       </c>
       <c r="K4">
-        <v>1.048069248930106</v>
+        <v>1.045114712410155</v>
       </c>
       <c r="L4">
-        <v>1.017393245121899</v>
+        <v>1.0189183125659</v>
       </c>
       <c r="M4">
-        <v>1.031691835168016</v>
+        <v>1.032775950308161</v>
       </c>
       <c r="N4">
-        <v>1.005476861905055</v>
+        <v>1.008926436447685</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033654319201321</v>
+        <v>1.034512331375454</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045057616824037</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042977060810192</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023909938707781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9910600008281627</v>
+        <v>0.9929843061773422</v>
       </c>
       <c r="D5">
-        <v>1.038823020179318</v>
+        <v>1.035804028752636</v>
       </c>
       <c r="E5">
-        <v>1.00882775906411</v>
+        <v>1.010309173436282</v>
       </c>
       <c r="F5">
-        <v>1.023114371613169</v>
+        <v>1.02416285114476</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.050113123227227</v>
+        <v>1.04899336163981</v>
       </c>
       <c r="J5">
-        <v>1.010233518511142</v>
+        <v>1.012108897670964</v>
       </c>
       <c r="K5">
-        <v>1.048260984905129</v>
+        <v>1.045274450186883</v>
       </c>
       <c r="L5">
-        <v>1.018598838072065</v>
+        <v>1.02006322755875</v>
       </c>
       <c r="M5">
-        <v>1.032723793150377</v>
+        <v>1.033760627321669</v>
       </c>
       <c r="N5">
-        <v>1.005966699864396</v>
+        <v>1.009297146834937</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034471052134214</v>
+        <v>1.035291643325797</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045200307739784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043097848697365</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023926034342829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9913632575641145</v>
+        <v>0.9932744367729565</v>
       </c>
       <c r="D6">
-        <v>1.038898005709918</v>
+        <v>1.035873489906829</v>
       </c>
       <c r="E6">
-        <v>1.009069296802379</v>
+        <v>1.010540397797133</v>
       </c>
       <c r="F6">
-        <v>1.023325165937459</v>
+        <v>1.024365710246327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050132124560968</v>
+        <v>1.049009837002514</v>
       </c>
       <c r="J6">
-        <v>1.010451667415725</v>
+        <v>1.012314521927446</v>
       </c>
       <c r="K6">
-        <v>1.048299334444479</v>
+        <v>1.045307190400493</v>
       </c>
       <c r="L6">
-        <v>1.018800344187127</v>
+        <v>1.02025462126159</v>
       </c>
       <c r="M6">
-        <v>1.032895684454604</v>
+        <v>1.033924726773692</v>
       </c>
       <c r="N6">
-        <v>1.00604885297762</v>
+        <v>1.009359312409622</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034607093713915</v>
+        <v>1.035421517975028</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04523610749146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043130562612803</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023930064578896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9892712731161725</v>
+        <v>0.9912954623690994</v>
       </c>
       <c r="D7">
-        <v>1.038435891528847</v>
+        <v>1.035448305223601</v>
       </c>
       <c r="E7">
-        <v>1.007403114215662</v>
+        <v>1.008965575847808</v>
       </c>
       <c r="F7">
-        <v>1.021865976633523</v>
+        <v>1.022978288220248</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050016216015959</v>
+        <v>1.048913491816346</v>
       </c>
       <c r="J7">
-        <v>1.008947267399825</v>
+        <v>1.010918309508222</v>
       </c>
       <c r="K7">
-        <v>1.048088693176736</v>
+        <v>1.045134062641513</v>
       </c>
       <c r="L7">
-        <v>1.017410032089397</v>
+        <v>1.018954019763351</v>
       </c>
       <c r="M7">
-        <v>1.031704556015444</v>
+        <v>1.032804164227086</v>
       </c>
       <c r="N7">
-        <v>1.005484598203263</v>
+        <v>1.008967290997877</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033664386995905</v>
+        <v>1.034534660987776</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045091334308293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043012736415302</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023914071971839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9802726425823918</v>
+        <v>0.982744445553166</v>
       </c>
       <c r="D8">
-        <v>1.036459506335937</v>
+        <v>1.033629009331094</v>
       </c>
       <c r="E8">
-        <v>1.000249058240754</v>
+        <v>1.002168861983606</v>
       </c>
       <c r="F8">
-        <v>1.015607088638764</v>
+        <v>1.016999333319542</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.049491627643379</v>
+        <v>1.048469301404232</v>
       </c>
       <c r="J8">
-        <v>1.002468991441336</v>
+        <v>1.004865316943583</v>
       </c>
       <c r="K8">
-        <v>1.047167259396635</v>
+        <v>1.044371935791181</v>
       </c>
       <c r="L8">
-        <v>1.011425656930662</v>
+        <v>1.013319534587259</v>
       </c>
       <c r="M8">
-        <v>1.02657972185215</v>
+        <v>1.027953857846641</v>
       </c>
       <c r="N8">
-        <v>1.003047382121746</v>
+        <v>1.007197555589155</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029608373657584</v>
+        <v>1.030695926076669</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044444334311682</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042478836573307</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023834439177686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9633403688972286</v>
+        <v>0.9666233648874977</v>
       </c>
       <c r="D9">
-        <v>1.032835402642318</v>
+        <v>1.030296151502952</v>
       </c>
       <c r="E9">
-        <v>0.9868470117738151</v>
+        <v>0.9894033082951229</v>
       </c>
       <c r="F9">
-        <v>1.003908159906995</v>
+        <v>1.005797194702911</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048421363361823</v>
+        <v>1.047543799654268</v>
       </c>
       <c r="J9">
-        <v>0.9902575710217824</v>
+        <v>0.9934124071523511</v>
       </c>
       <c r="K9">
-        <v>1.045417300403309</v>
+        <v>1.042916100176896</v>
       </c>
       <c r="L9">
-        <v>1.000157153672998</v>
+        <v>1.002670681394641</v>
       </c>
       <c r="M9">
-        <v>1.01693814658262</v>
+        <v>1.018796911501457</v>
       </c>
       <c r="N9">
-        <v>0.9984288763379376</v>
+        <v>1.003730391720716</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.021977553209349</v>
+        <v>1.023448678530269</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043203880378724</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041446040797859</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023653446510086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9514252374999286</v>
+        <v>0.9554223611472925</v>
       </c>
       <c r="D10">
-        <v>1.030359779516309</v>
+        <v>1.028029524037761</v>
       </c>
       <c r="E10">
-        <v>0.9775109417256177</v>
+        <v>0.9806391814483487</v>
       </c>
       <c r="F10">
-        <v>0.9958270912387642</v>
+        <v>0.9981671083128405</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047637406454242</v>
+        <v>1.046871607628711</v>
       </c>
       <c r="J10">
-        <v>0.981708047605507</v>
+        <v>0.9855234879725711</v>
       </c>
       <c r="K10">
-        <v>1.044201692814676</v>
+        <v>1.041910490181941</v>
       </c>
       <c r="L10">
-        <v>0.9922984720387688</v>
+        <v>0.9953670271744881</v>
       </c>
       <c r="M10">
-        <v>1.010272099814014</v>
+        <v>1.012569535231588</v>
       </c>
       <c r="N10">
-        <v>0.9952042735382198</v>
+        <v>1.001476663028336</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.016754494076094</v>
+        <v>1.018572700965124</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042361055012236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040753377845465</v>
+      </c>
+      <c r="S10">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T10">
+        <v>1.023514180439054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9479037072538828</v>
+        <v>0.9522637100639574</v>
       </c>
       <c r="D11">
-        <v>1.029438804350738</v>
+        <v>1.027183078008235</v>
       </c>
       <c r="E11">
-        <v>0.9751431308385959</v>
+        <v>0.9785830670586345</v>
       </c>
       <c r="F11">
-        <v>0.9941809900168526</v>
+        <v>0.9967746243705066</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047502527053366</v>
+        <v>1.046789344149499</v>
       </c>
       <c r="J11">
-        <v>0.9796166750963777</v>
+        <v>0.9837666401984929</v>
       </c>
       <c r="K11">
-        <v>1.043826112127705</v>
+        <v>1.041609944658589</v>
       </c>
       <c r="L11">
-        <v>0.9905495452130917</v>
+        <v>0.9939205019416383</v>
       </c>
       <c r="M11">
-        <v>1.009213485054884</v>
+        <v>1.011757623965407</v>
       </c>
       <c r="N11">
-        <v>0.994604016809542</v>
+        <v>1.001358151757849</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.01636433425998</v>
+        <v>1.018376721037532</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042128044766161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040576667406925</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023480178075637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9473389487183969</v>
+        <v>0.9517893527859806</v>
       </c>
       <c r="D12">
-        <v>1.029146321879713</v>
+        <v>1.026907723726957</v>
       </c>
       <c r="E12">
-        <v>0.9749965272041494</v>
+        <v>0.9785182418675017</v>
       </c>
       <c r="F12">
-        <v>0.994351190822107</v>
+        <v>0.9970131884032176</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047540803579285</v>
+        <v>1.046842303269861</v>
       </c>
       <c r="J12">
-        <v>0.9795522265742651</v>
+        <v>0.9837841277661062</v>
       </c>
       <c r="K12">
-        <v>1.043735646066253</v>
+        <v>1.041536954070475</v>
       </c>
       <c r="L12">
-        <v>0.9906189605913301</v>
+        <v>0.9940689044561946</v>
       </c>
       <c r="M12">
-        <v>1.009587419230479</v>
+        <v>1.012197835598262</v>
       </c>
       <c r="N12">
-        <v>0.9947422721199733</v>
+        <v>1.00160829586391</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.0169940509683</v>
+        <v>1.019058132000552</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042064083472462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040525062485412</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023474985310334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9490167732643158</v>
+        <v>0.9533154397696888</v>
       </c>
       <c r="D13">
-        <v>1.029334186623688</v>
+        <v>1.027067335573195</v>
       </c>
       <c r="E13">
-        <v>0.9765502818334999</v>
+        <v>0.9799474673804135</v>
       </c>
       <c r="F13">
-        <v>0.9959371872841177</v>
+        <v>0.9985010113431233</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047722401396468</v>
+        <v>1.04700775971947</v>
       </c>
       <c r="J13">
-        <v>0.9810461355845461</v>
+        <v>0.9851355528355488</v>
       </c>
       <c r="K13">
-        <v>1.043877949566023</v>
+        <v>1.041651355951027</v>
       </c>
       <c r="L13">
-        <v>0.992095368993254</v>
+        <v>0.9954238327898925</v>
       </c>
       <c r="M13">
-        <v>1.011098343415896</v>
+        <v>1.013612855415986</v>
       </c>
       <c r="N13">
-        <v>0.995457524802736</v>
+        <v>1.002108221751697</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.01847076022111</v>
+        <v>1.020458491745316</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042162225864901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040603231237701</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023496347599946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.951186379913707</v>
+        <v>0.9552740085074524</v>
       </c>
       <c r="D14">
-        <v>1.029685958923298</v>
+        <v>1.027379325782074</v>
       </c>
       <c r="E14">
-        <v>0.9783896708365625</v>
+        <v>0.9816110965081135</v>
       </c>
       <c r="F14">
-        <v>0.997672121856488</v>
+        <v>1.000096050658648</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047913217760024</v>
+        <v>1.047174230226023</v>
       </c>
       <c r="J14">
-        <v>0.982779744748154</v>
+        <v>0.9866720427190724</v>
       </c>
       <c r="K14">
-        <v>1.044085210384349</v>
+        <v>1.041819058917435</v>
       </c>
       <c r="L14">
-        <v>0.9937484881244901</v>
+        <v>0.9969057739540068</v>
       </c>
       <c r="M14">
-        <v>1.012655099170281</v>
+        <v>1.01503312231554</v>
       </c>
       <c r="N14">
-        <v>0.9962120165874908</v>
+        <v>1.002569024826233</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.019877420965692</v>
+        <v>1.021756998565188</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042310174521865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040723349910114</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023523753444626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9522044992986983</v>
+        <v>0.9561921116482509</v>
       </c>
       <c r="D15">
-        <v>1.029880752633466</v>
+        <v>1.0275547315712</v>
       </c>
       <c r="E15">
-        <v>0.9792139669657131</v>
+        <v>0.9823517628560468</v>
       </c>
       <c r="F15">
-        <v>0.9984154415264269</v>
+        <v>1.00077265314262</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047992609165151</v>
+        <v>1.047241662069869</v>
       </c>
       <c r="J15">
-        <v>0.9835461767214682</v>
+        <v>0.9873452318441827</v>
       </c>
       <c r="K15">
-        <v>1.044191411668715</v>
+        <v>1.041905915736508</v>
       </c>
       <c r="L15">
-        <v>0.9944646442715744</v>
+        <v>0.9975405268808022</v>
       </c>
       <c r="M15">
-        <v>1.01329520811622</v>
+        <v>1.015608166391812</v>
       </c>
       <c r="N15">
-        <v>0.9965226232007708</v>
+        <v>1.002741631356775</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.020421416667253</v>
+        <v>1.022249518946263</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042391077298817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040791152530706</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023537277745238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.956933099575159</v>
+        <v>0.9604828024667932</v>
       </c>
       <c r="D16">
-        <v>1.030890402657733</v>
+        <v>1.028473912888162</v>
       </c>
       <c r="E16">
-        <v>0.9828671623023157</v>
+        <v>0.9856387130610986</v>
       </c>
       <c r="F16">
-        <v>1.00155483704659</v>
+        <v>1.003618966008822</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048300963917861</v>
+        <v>1.047493402444309</v>
       </c>
       <c r="J16">
-        <v>0.9868834774850395</v>
+        <v>0.9902748847353395</v>
       </c>
       <c r="K16">
-        <v>1.044688346910158</v>
+        <v>1.042312187878273</v>
       </c>
       <c r="L16">
-        <v>0.997515191979952</v>
+        <v>1.000234741902578</v>
       </c>
       <c r="M16">
-        <v>1.015859479680405</v>
+        <v>1.017886698282343</v>
       </c>
       <c r="N16">
-        <v>0.9977464958340458</v>
+        <v>1.003365935272019</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.02240893008169</v>
+        <v>1.024011240037544</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042745565482887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041081848326938</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023596434494025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9594201619542098</v>
+        <v>0.962773094082002</v>
       </c>
       <c r="D17">
-        <v>1.031483620014847</v>
+        <v>1.029019511230606</v>
       </c>
       <c r="E17">
-        <v>0.9847045117514546</v>
+        <v>0.9873123605237162</v>
       </c>
       <c r="F17">
-        <v>1.003048056537851</v>
+        <v>1.004981197118526</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048435357688168</v>
+        <v>1.047598884846869</v>
       </c>
       <c r="J17">
-        <v>0.9885323144185422</v>
+        <v>0.9917410366131425</v>
       </c>
       <c r="K17">
-        <v>1.044961262775448</v>
+        <v>1.042537161267983</v>
       </c>
       <c r="L17">
-        <v>0.9989861487908265</v>
+        <v>1.001546568287647</v>
       </c>
       <c r="M17">
-        <v>1.017002852521301</v>
+        <v>1.018902447988231</v>
       </c>
       <c r="N17">
-        <v>0.9982888809400141</v>
+        <v>1.00364074263077</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.023181832752516</v>
+        <v>1.024683423493917</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042941093397138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041243733184277</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023626903784433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.960206325983727</v>
+        <v>0.9635114995362724</v>
       </c>
       <c r="D18">
-        <v>1.031763451324918</v>
+        <v>1.029282649429315</v>
       </c>
       <c r="E18">
-        <v>0.9851257271515951</v>
+        <v>0.9876922768739422</v>
       </c>
       <c r="F18">
-        <v>1.003217990802913</v>
+        <v>1.005116803041197</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048428713636265</v>
+        <v>1.04758091166722</v>
       </c>
       <c r="J18">
-        <v>0.9888618195843593</v>
+        <v>0.9920275822841652</v>
       </c>
       <c r="K18">
-        <v>1.045055540603025</v>
+        <v>1.042614370113821</v>
       </c>
       <c r="L18">
-        <v>0.9992062462442585</v>
+        <v>1.001726894255218</v>
       </c>
       <c r="M18">
-        <v>1.016981407765885</v>
+        <v>1.018847794471711</v>
       </c>
       <c r="N18">
-        <v>0.9982869934842726</v>
+        <v>1.003581178465866</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.022923413688988</v>
+        <v>1.024399070192592</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042996217196724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041285641453634</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023633414394223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9594838796831755</v>
+        <v>0.9628526699771898</v>
       </c>
       <c r="D19">
-        <v>1.031785225358181</v>
+        <v>1.029313197602745</v>
       </c>
       <c r="E19">
-        <v>0.9842881312227446</v>
+        <v>0.9869038397608484</v>
       </c>
       <c r="F19">
-        <v>1.002202681202134</v>
+        <v>1.004138712431966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048306519892145</v>
+        <v>1.047462014382521</v>
       </c>
       <c r="J19">
-        <v>0.988025853059722</v>
+        <v>0.9912530999320222</v>
       </c>
       <c r="K19">
-        <v>1.045015241134726</v>
+        <v>1.042582491889576</v>
       </c>
       <c r="L19">
-        <v>0.9983176643403204</v>
+        <v>1.000886744478228</v>
       </c>
       <c r="M19">
-        <v>1.015919161585578</v>
+        <v>1.017822224565152</v>
       </c>
       <c r="N19">
-        <v>0.9978190358887485</v>
+        <v>1.00321212382575</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.021751886298449</v>
+        <v>1.023257050173833</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042974062687875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041270071831424</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023622962650107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.954551973490757</v>
+        <v>0.9582903517444104</v>
       </c>
       <c r="D20">
-        <v>1.031039261113296</v>
+        <v>1.028649131155157</v>
       </c>
       <c r="E20">
-        <v>0.9799581468155034</v>
+        <v>0.9828716916138867</v>
       </c>
       <c r="F20">
-        <v>0.9979404204120884</v>
+        <v>1.000109885999906</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047856005119073</v>
+        <v>1.047055358433447</v>
       </c>
       <c r="J20">
-        <v>0.9839546854129116</v>
+        <v>0.9875295060452215</v>
       </c>
       <c r="K20">
-        <v>1.044557430155655</v>
+        <v>1.042206255982238</v>
       </c>
       <c r="L20">
-        <v>0.9943628067604495</v>
+        <v>0.9972225598730365</v>
       </c>
       <c r="M20">
-        <v>1.012019581978835</v>
+        <v>1.014150803470073</v>
       </c>
       <c r="N20">
-        <v>0.9960557149540278</v>
+        <v>1.001973605271934</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.01812664858854</v>
+        <v>1.019813332162483</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042654255198797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.041008327944186</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023558398412813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9451134887668342</v>
+        <v>0.9497793697447335</v>
       </c>
       <c r="D21">
-        <v>1.02914907588562</v>
+        <v>1.02694159865754</v>
       </c>
       <c r="E21">
-        <v>0.9725115805553929</v>
+        <v>0.9762088299460328</v>
       </c>
       <c r="F21">
-        <v>0.9914253642594286</v>
+        <v>0.994224495059048</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047199709411989</v>
+        <v>1.046518024168407</v>
       </c>
       <c r="J21">
-        <v>0.9770997846962732</v>
+        <v>0.981537930907614</v>
       </c>
       <c r="K21">
-        <v>1.043598482007554</v>
+        <v>1.041429920200953</v>
       </c>
       <c r="L21">
-        <v>0.9880331388634225</v>
+        <v>0.9916554003764448</v>
       </c>
       <c r="M21">
-        <v>1.006571027274359</v>
+        <v>1.009316118542468</v>
       </c>
       <c r="N21">
-        <v>0.9934332953373858</v>
+        <v>1.000617808855788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.013772404674194</v>
+        <v>1.015945041416594</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041979436466947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04046294165638</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02344389480214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9390617742952585</v>
+        <v>0.9443394490480213</v>
       </c>
       <c r="D22">
-        <v>1.027935626464354</v>
+        <v>1.025846901688705</v>
       </c>
       <c r="E22">
-        <v>0.9677748680573623</v>
+        <v>0.9719920908276998</v>
       </c>
       <c r="F22">
-        <v>0.987314856569435</v>
+        <v>0.9905340789252188</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046774544443966</v>
+        <v>1.046171524828298</v>
       </c>
       <c r="J22">
-        <v>0.9727308538890842</v>
+        <v>0.9777331002520958</v>
       </c>
       <c r="K22">
-        <v>1.042973269343814</v>
+        <v>1.040923146207239</v>
       </c>
       <c r="L22">
-        <v>0.9840129311975486</v>
+        <v>0.9881395851084142</v>
       </c>
       <c r="M22">
-        <v>1.0031418678145</v>
+        <v>1.006295419155157</v>
       </c>
       <c r="N22">
-        <v>0.9917695689738045</v>
+        <v>0.9997633673065911</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.01105834345955</v>
+        <v>1.013554270790271</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041524008778052</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040089931359826</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02336587524581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.942291608908517</v>
+        <v>0.9471996685553524</v>
       </c>
       <c r="D23">
-        <v>1.028567091319084</v>
+        <v>1.026413164735835</v>
       </c>
       <c r="E23">
-        <v>0.970301720739681</v>
+        <v>0.9742008699995114</v>
       </c>
       <c r="F23">
-        <v>0.9895093572238003</v>
+        <v>0.9924701032941902</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046998950454287</v>
+        <v>1.046349548513191</v>
       </c>
       <c r="J23">
-        <v>0.9750622825576021</v>
+        <v>0.9797230836346733</v>
       </c>
       <c r="K23">
-        <v>1.043292887498048</v>
+        <v>1.041177792888762</v>
       </c>
       <c r="L23">
-        <v>0.986158321424295</v>
+        <v>0.9899762176435095</v>
       </c>
       <c r="M23">
-        <v>1.004973835211834</v>
+        <v>1.007875910817366</v>
       </c>
       <c r="N23">
-        <v>0.9926565713152929</v>
+        <v>1.000159818446954</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.012508283760022</v>
+        <v>1.014805171937027</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041740448851584</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040259484839052</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023404738211444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9545294727192799</v>
+        <v>0.9582699598649339</v>
       </c>
       <c r="D24">
-        <v>1.031033356095013</v>
+        <v>1.028643979452894</v>
       </c>
       <c r="E24">
-        <v>0.9799048787142043</v>
+        <v>0.982819668478092</v>
       </c>
       <c r="F24">
-        <v>0.9978579613157997</v>
+        <v>1.000027732632536</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047839835956133</v>
+        <v>1.047038554521424</v>
       </c>
       <c r="J24">
-        <v>0.9838976553324181</v>
+        <v>0.9874747147918173</v>
       </c>
       <c r="K24">
-        <v>1.044536560728879</v>
+        <v>1.042186078349051</v>
       </c>
       <c r="L24">
-        <v>0.9942943230001652</v>
+        <v>0.9971553603589505</v>
       </c>
       <c r="M24">
-        <v>1.011922798266558</v>
+        <v>1.014054361272269</v>
       </c>
       <c r="N24">
-        <v>0.9960163788385865</v>
+        <v>1.001938434018073</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.018008123975804</v>
+        <v>1.019695165917758</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042612341751192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040964200357098</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023553351116357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9678588398843532</v>
+        <v>0.9708905251674859</v>
       </c>
       <c r="D25">
-        <v>1.033811754245503</v>
+        <v>1.031192578733245</v>
       </c>
       <c r="E25">
-        <v>0.9904152793594914</v>
+        <v>0.992771333443339</v>
       </c>
       <c r="F25">
-        <v>1.007016554069928</v>
+        <v>1.008748823831485</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048721604720982</v>
+        <v>1.047803254547703</v>
       </c>
       <c r="J25">
-        <v>0.9935185030746051</v>
+        <v>0.9964388835481818</v>
       </c>
       <c r="K25">
-        <v>1.045906918854242</v>
+        <v>1.043325225932657</v>
       </c>
       <c r="L25">
-        <v>1.003164230613266</v>
+        <v>1.005482911289955</v>
       </c>
       <c r="M25">
-        <v>1.019506914867548</v>
+        <v>1.021212826916892</v>
       </c>
       <c r="N25">
-        <v>0.9996660479509244</v>
+        <v>1.004615179553228</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024010612074912</v>
+        <v>1.025360757582373</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043578406715411</v>
+        <v>1.041766497243086</v>
+      </c>
+      <c r="S25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T25">
+        <v>1.023709108039573</v>
       </c>
     </row>
   </sheetData>
